--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E151CF02-27CE-4C74-8871-EBF72C41FE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C21BDCA-697E-42DB-826F-FF15A7F563FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5748" yWindow="72" windowWidth="17244" windowHeight="12012" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="161">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -629,6 +629,10 @@
 F:失敗
 S:成功</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int tbsdyf,  String empNo,int StartMonth,int EndMonth,int CustNo,String AcctCode</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -828,7 +832,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -951,6 +955,9 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1676,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1933,12 +1940,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="28" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>36</v>
+      <c r="B18" s="41" t="s">
+        <v>160</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>109</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C21BDCA-697E-42DB-826F-FF15A7F563FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049CB829-706F-4EDB-81B3-4F112F4B2B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="164">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -632,6 +632,18 @@
   </si>
   <si>
     <t>int tbsdyf,  String empNo,int StartMonth,int EndMonth,int CustNo,String AcctCode</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usp_Tx_TxHoliday_Ins</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>String EmpNo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日終批次)更新TxHoliday</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -944,6 +956,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -955,9 +970,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1319,10 +1331,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="3" t="s">
         <v>58</v>
       </c>
@@ -1334,8 +1346,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1347,10 +1359,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="12" t="s">
         <v>154</v>
       </c>
@@ -1362,10 +1374,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1373,10 +1385,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1384,10 +1396,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1395,10 +1407,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1681,10 +1693,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1944,7 +1956,7 @@
       <c r="A18" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="37" t="s">
         <v>160</v>
       </c>
       <c r="C18" s="28" t="s">
@@ -2372,6 +2384,17 @@
       </c>
       <c r="G48" s="28" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>161</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049CB829-706F-4EDB-81B3-4F112F4B2B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFECA3E-6AC9-48AC-A77C-DB3D365C747E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="167">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -644,6 +644,18 @@
   </si>
   <si>
     <t>(日終批次)更新TxHoliday</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usp_L9_YearlyHouseLoanIntCheck_Upd</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>int tbsdyf,  String empNo,int YYYYMM,int StartMonth,int EndMonth,int CustNo,String AcctCode</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>執行L5811產生國稅局申報檢核檔時</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1693,10 +1705,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2397,6 +2409,17 @@
         <v>163</v>
       </c>
     </row>
+    <row r="50" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFECA3E-6AC9-48AC-A77C-DB3D365C747E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3F5964-A003-42E7-8E2E-37B251C823A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="172">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -656,6 +656,26 @@
   </si>
   <si>
     <t>執行L5811產生國稅局申報檢核檔時</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usp_Cp_ForeignKeyControl_Upd</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>int TBSDYF, String empNo,int Switch</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(每日複製)控制外來鍵</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usp_Cp_CdCode_Ins</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(每日複製)CdCode</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1705,10 +1725,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2420,6 +2440,28 @@
         <v>166</v>
       </c>
     </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3F5964-A003-42E7-8E2E-37B251C823A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F22448C-20CF-4F6B-91E2-1D391349B55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="531">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -671,11 +671,1087 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>Usp_Cp_AcAcctCheck_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_AcAcctCheckDetail_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_AcClose_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_AcDetail_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_AchAuthLog_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_AchAuthLogHistory_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_AchDeductMedia_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_AcLoanInt_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_AcLoanRenew_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_AcMain_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_AcReceivable_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_AmlCustList_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_BankAuthAct_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_BankDeductDtl_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_BankRelationCompany_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_BankRelationFamily_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_BankRelationSelf_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_BankRelationSuspected_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_BankRemit_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_BankRmtf_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_BatxCheque_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_BatxDetail_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_BatxHead_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_BatxOthers_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_BatxRateChange_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdAcBook_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdAcCode_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdAoDept_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdAppraisalCompany_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdAppraiser_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdArea_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdBank_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdBankOld_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdBaseRate_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdBcm_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdBonus_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdBonusCo_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdBranch_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdBranchGroup_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdBudget_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdBuildingCost_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdCashFlow_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdCity_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdCl_Ins</t>
+  </si>
+  <si>
     <t>Usp_Cp_CdCode_Ins</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(每日複製)CdCode</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdEmp_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdGseq_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdGuarantor_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdIndustry_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdInsurer_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdLandOffice_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdLandSection_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdLoanNotYet_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdOverdue_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdPerformance_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdPfParms_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdReport_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdStock_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdSupv_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdSyndFee_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdVarValue_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CdWorkMonth_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_ClBuilding_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_ClBuildingOwner_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_ClBuildingPublic_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_ClBuildingReason_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_ClEva_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_ClFac_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_ClImm_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_ClImmRankDetail_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_ClLand_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_ClLandOwner_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_ClLandReason_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_ClMain_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_ClMovables_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_ClNoMap_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_ClOther_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_ClOtherRights_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_ClOwnerRelation_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_ClParking_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_ClParkingType_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_ClStock_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CollLaw_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CollLetter_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CollList_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CollListTmp_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CollMeet_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CollRemind_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CollTel_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CreditRating_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CustCross_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CustDataCtrl_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CustFin_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CustMain_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CustNotice_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CustomerAmlRating_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CustRmk_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_CustTelNo_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_DailyLoanBal_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_EmpDeductDtl_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_EmpDeductMedia_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_EmpDeductSchedule_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_FacCaseAppl_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_FacClose_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_FacMain_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_FacProd_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_FacProdAcctFee_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_FacProdPremium_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_FacProdStepRate_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_FacRelation_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_FacShareAppl_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_FacShareLimit_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_FacShareRelation_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_FinReportCashFlow_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_FinReportDebt_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_FinReportProfit_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_FinReportQuality_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_FinReportRate_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_FinReportReview_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_ForeclosureFee_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_ForeclosureFinished_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_GraceCondition_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_Guarantor_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_GuildBuilders_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_HlAreaData_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_HlAreaLnYg6Pt_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_HlCusData_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_HlEmpLnYg5Pt_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_HlThreeDetail_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_HlThreeLaqhcp_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_Ias34Ap_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_Ias34Bp_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_Ias34Cp_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_Ias34Dp_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_Ias34Ep_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_Ias34Gp_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_Ias39IntMethod_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_Ias39LGD_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_Ias39Loan34Data_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_Ias39LoanCommit_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_Ias39Loss_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_Ifrs9FacData_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_Ifrs9LoanData_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_InnDocRecord_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_InnFundApl_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_InnLoanMeeting_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_InnReCheck_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_InsuComm_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_InsuOrignal_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_InsuRenew_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_InsuRenewMediaTemp_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicAtomDetail_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicAtomMain_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicB080_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicB085_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicB090_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicB091_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicB092_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicB093_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicB094_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicB095_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicB096_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicB201_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicB204_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicB207_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicB211_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicB680_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicMonthlyLoanData_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicRel_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ040_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ040Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ041_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ041Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ042_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ042Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ043_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ043Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ044_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ044Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ045_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ045Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ046_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ046Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ047_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ047Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ048_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ048Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ049_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ049Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ050_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ050Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ051_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ051Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ052_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ052Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ053_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ053Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ054_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ054Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ055_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ055Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ056_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ056Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ060_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ060Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ061_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ061Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ062_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ062Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ063_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ063Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ440_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ440Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ442_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ442Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ443_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ443Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ444_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ444Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ446_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ446Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ447_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ447Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ448_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ448Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ450_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ450Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ451_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ451Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ454_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ454Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ570_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ570Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ571_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ571Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ572_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ572Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ573_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ573Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ574_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ574Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ575_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JcicZ575Log_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JobDetail_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_JobMain_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_LoanBook_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_LoanBorMain_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_LoanBorTx_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_LoanCheque_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_LoanCustRmk_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_LoanIfrs9Ap_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_LoanIfrs9Bp_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_LoanIfrs9Cp_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_LoanIfrs9Dp_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_LoanIfrs9Fp_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_LoanIfrs9Gp_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_LoanIfrs9Hp_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_LoanIfrs9Ip_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_LoanIfrs9Jp_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_LoanIntDetail_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_LoanNotYet_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_LoanOverdue_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_LoanRateChange_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_LoanSynd_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_LoanSyndItem_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_MlaundryChkDtl_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_MlaundryDetail_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_MlaundryParas_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_MlaundryRecord_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_MonthlyLM003_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_MonthlyLM028_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_MonthlyLM032_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_MonthlyLM036Portfolio_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_MonthlyLM052AssetClass_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_MonthlyLM052LoanAsset_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_MonthlyLM052Loss_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_MonthlyLM052Ovdu_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_MonthlyLoanBal_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_NegAppr_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_NegAppr01_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_NegAppr02_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_NegFinAcct_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_NegFinShare_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_NegFinShareLog_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_NegMain_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_NegQueryCust_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_NegTrans_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_PfBsDetail_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_PfBsDetailAdjust_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_PfBsOfficer_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_PfCoOfficer_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_PfCoOfficerLog_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_PfDeparment_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_PfDetail_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_PfInsCheck_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_PfIntranetAdjust_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_PfItDetail_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_PfItDetailAdjust_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_PfReward_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_PfRewardMedia_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_PfSpecParms_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_PostAuthLog_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_PostAuthLogHistory_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_PostDeductMedia_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_ReltMain_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_RepayActChangeLog_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_RptJcic_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_RptRelationCompany_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_RptRelationFamily_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_RptRelationSelf_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_RptSubCom_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_SlipEbsRecord_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_SlipMedia_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_SlipMedia2022_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_SpecInnReCheck_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_StgCdEmp_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_SystemParas_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TbJcicMu01_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TbJcicW020_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TbJcicZZ50_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxAgent_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxAmlCredit_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxAmlLog_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxAmlNotice_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxAmlRating_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxApLog_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxApLogList_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxArchiveTable_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxArchiveTableLog_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxAttachment_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxAttachType_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxAuthGroup_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxAuthority_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxAuthorize_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxBizDate_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxControl_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxCruiser_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxCurr_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxDataLog_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxErrCode_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxFile_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxFlow_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxHoliday_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxInquiry_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxLock_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxPrinter_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxProcess_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxRecord_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxTeller_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxTellerAuth_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxTellerTest_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxTemp_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxToDoDetail_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxToDoDetailReserve_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxToDoMain_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxTranCode_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_TxUnLock_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_UspErrorLog_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_YearlyHouseLoanInt_Ins</t>
+  </si>
+  <si>
+    <t>Usp_Cp_YearlyHouseLoanIntCheck_Ins</t>
+  </si>
+  <si>
+    <t>(每日複製)</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1725,10 +2801,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2459,7 +3535,3956 @@
         <v>162</v>
       </c>
       <c r="C52" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>171</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>173</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>175</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>181</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>182</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>185</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>186</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>188</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>189</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>190</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>193</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>194</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>195</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>196</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>197</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>198</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>199</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>200</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>201</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>202</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>203</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>204</v>
+      </c>
+      <c r="B86" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>205</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>206</v>
+      </c>
+      <c r="B88" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C89" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>208</v>
+      </c>
+      <c r="B90" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C90" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>209</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C91" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>210</v>
+      </c>
+      <c r="B92" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>211</v>
+      </c>
+      <c r="B93" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>212</v>
+      </c>
+      <c r="B94" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B95" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>214</v>
+      </c>
+      <c r="B96" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C96" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>215</v>
+      </c>
+      <c r="B97" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C97" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>216</v>
+      </c>
+      <c r="B98" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C98" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>217</v>
+      </c>
+      <c r="B99" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C99" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>218</v>
+      </c>
+      <c r="B100" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C100" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>219</v>
+      </c>
+      <c r="B101" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C101" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>220</v>
+      </c>
+      <c r="B102" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C102" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>221</v>
+      </c>
+      <c r="B103" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>222</v>
+      </c>
+      <c r="B104" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C104" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>223</v>
+      </c>
+      <c r="B105" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>224</v>
+      </c>
+      <c r="B106" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C106" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>225</v>
+      </c>
+      <c r="B107" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C107" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>226</v>
+      </c>
+      <c r="B108" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>227</v>
+      </c>
+      <c r="B109" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C109" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>228</v>
+      </c>
+      <c r="B110" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C110" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>229</v>
+      </c>
+      <c r="B111" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C111" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>230</v>
+      </c>
+      <c r="B112" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C112" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>231</v>
+      </c>
+      <c r="B113" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C113" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>232</v>
+      </c>
+      <c r="B114" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C114" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>233</v>
+      </c>
+      <c r="B115" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C115" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>234</v>
+      </c>
+      <c r="B116" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C116" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>235</v>
+      </c>
+      <c r="B117" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C117" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>236</v>
+      </c>
+      <c r="B118" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C118" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>237</v>
+      </c>
+      <c r="B119" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C120" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>239</v>
+      </c>
+      <c r="B121" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C121" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C122" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>241</v>
+      </c>
+      <c r="B123" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C123" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>242</v>
+      </c>
+      <c r="B124" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C124" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>243</v>
+      </c>
+      <c r="B125" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C125" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>244</v>
+      </c>
+      <c r="B126" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C126" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>245</v>
+      </c>
+      <c r="B127" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C127" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>246</v>
+      </c>
+      <c r="B128" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C128" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>247</v>
+      </c>
+      <c r="B129" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C129" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>248</v>
+      </c>
+      <c r="B130" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C130" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>249</v>
+      </c>
+      <c r="B131" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C131" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>250</v>
+      </c>
+      <c r="B132" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C132" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>251</v>
+      </c>
+      <c r="B133" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C133" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>252</v>
+      </c>
+      <c r="B134" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C134" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>253</v>
+      </c>
+      <c r="B135" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C135" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>254</v>
+      </c>
+      <c r="B136" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C136" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>255</v>
+      </c>
+      <c r="B137" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C137" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>256</v>
+      </c>
+      <c r="B138" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C138" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>257</v>
+      </c>
+      <c r="B139" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C139" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>258</v>
+      </c>
+      <c r="B140" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C140" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>259</v>
+      </c>
+      <c r="B141" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C141" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>260</v>
+      </c>
+      <c r="B142" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C142" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>261</v>
+      </c>
+      <c r="B143" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C143" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>262</v>
+      </c>
+      <c r="B144" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C144" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>263</v>
+      </c>
+      <c r="B145" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C145" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>264</v>
+      </c>
+      <c r="B146" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C146" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>265</v>
+      </c>
+      <c r="B147" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C147" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>266</v>
+      </c>
+      <c r="B148" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C148" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>267</v>
+      </c>
+      <c r="B149" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C149" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>268</v>
+      </c>
+      <c r="B150" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C150" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>269</v>
+      </c>
+      <c r="B151" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C151" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>270</v>
+      </c>
+      <c r="B152" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C152" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>271</v>
+      </c>
+      <c r="B153" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C153" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>272</v>
+      </c>
+      <c r="B154" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C154" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>273</v>
+      </c>
+      <c r="B155" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C155" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>274</v>
+      </c>
+      <c r="B156" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C156" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>275</v>
+      </c>
+      <c r="B157" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C157" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>276</v>
+      </c>
+      <c r="B158" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C158" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>277</v>
+      </c>
+      <c r="B159" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C159" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>278</v>
+      </c>
+      <c r="B160" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C160" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>279</v>
+      </c>
+      <c r="B161" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C161" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>280</v>
+      </c>
+      <c r="B162" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C162" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>281</v>
+      </c>
+      <c r="B163" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C163" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>282</v>
+      </c>
+      <c r="B164" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C164" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>283</v>
+      </c>
+      <c r="B165" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C165" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>284</v>
+      </c>
+      <c r="B166" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C166" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>285</v>
+      </c>
+      <c r="B167" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C167" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>286</v>
+      </c>
+      <c r="B168" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C168" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>287</v>
+      </c>
+      <c r="B169" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C169" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>288</v>
+      </c>
+      <c r="B170" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C170" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>289</v>
+      </c>
+      <c r="B171" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C171" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>290</v>
+      </c>
+      <c r="B172" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C172" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>291</v>
+      </c>
+      <c r="B173" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C173" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>292</v>
+      </c>
+      <c r="B174" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C174" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>293</v>
+      </c>
+      <c r="B175" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C175" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>294</v>
+      </c>
+      <c r="B176" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C176" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>295</v>
+      </c>
+      <c r="B177" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C177" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>296</v>
+      </c>
+      <c r="B178" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C178" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>297</v>
+      </c>
+      <c r="B179" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C179" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>298</v>
+      </c>
+      <c r="B180" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C180" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>299</v>
+      </c>
+      <c r="B181" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C181" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>300</v>
+      </c>
+      <c r="B182" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C182" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>301</v>
+      </c>
+      <c r="B183" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C183" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>302</v>
+      </c>
+      <c r="B184" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C184" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>303</v>
+      </c>
+      <c r="B185" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C185" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>304</v>
+      </c>
+      <c r="B186" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C186" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>305</v>
+      </c>
+      <c r="B187" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C187" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>306</v>
+      </c>
+      <c r="B188" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C188" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>307</v>
+      </c>
+      <c r="B189" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C189" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>308</v>
+      </c>
+      <c r="B190" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C190" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>309</v>
+      </c>
+      <c r="B191" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C191" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>310</v>
+      </c>
+      <c r="B192" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C192" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>311</v>
+      </c>
+      <c r="B193" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C193" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>312</v>
+      </c>
+      <c r="B194" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C194" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>313</v>
+      </c>
+      <c r="B195" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C195" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>314</v>
+      </c>
+      <c r="B196" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C196" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>315</v>
+      </c>
+      <c r="B197" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C197" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>316</v>
+      </c>
+      <c r="B198" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C198" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>317</v>
+      </c>
+      <c r="B199" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C199" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>318</v>
+      </c>
+      <c r="B200" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C200" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>319</v>
+      </c>
+      <c r="B201" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C201" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>320</v>
+      </c>
+      <c r="B202" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C202" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>321</v>
+      </c>
+      <c r="B203" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C203" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>322</v>
+      </c>
+      <c r="B204" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C204" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>323</v>
+      </c>
+      <c r="B205" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C205" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>324</v>
+      </c>
+      <c r="B206" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C206" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>325</v>
+      </c>
+      <c r="B207" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C207" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>326</v>
+      </c>
+      <c r="B208" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C208" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>327</v>
+      </c>
+      <c r="B209" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C209" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>328</v>
+      </c>
+      <c r="B210" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C210" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>329</v>
+      </c>
+      <c r="B211" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C211" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>330</v>
+      </c>
+      <c r="B212" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C212" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>331</v>
+      </c>
+      <c r="B213" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C213" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>332</v>
+      </c>
+      <c r="B214" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C214" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>333</v>
+      </c>
+      <c r="B215" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C215" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>334</v>
+      </c>
+      <c r="B216" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C216" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>335</v>
+      </c>
+      <c r="B217" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C217" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>336</v>
+      </c>
+      <c r="B218" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C218" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>337</v>
+      </c>
+      <c r="B219" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C219" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>338</v>
+      </c>
+      <c r="B220" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C220" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>339</v>
+      </c>
+      <c r="B221" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C221" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>340</v>
+      </c>
+      <c r="B222" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C222" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>341</v>
+      </c>
+      <c r="B223" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C223" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>342</v>
+      </c>
+      <c r="B224" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C224" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>343</v>
+      </c>
+      <c r="B225" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C225" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>344</v>
+      </c>
+      <c r="B226" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C226" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>345</v>
+      </c>
+      <c r="B227" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C227" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>346</v>
+      </c>
+      <c r="B228" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C228" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>347</v>
+      </c>
+      <c r="B229" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C229" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>348</v>
+      </c>
+      <c r="B230" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C230" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>349</v>
+      </c>
+      <c r="B231" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C231" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>350</v>
+      </c>
+      <c r="B232" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C232" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>351</v>
+      </c>
+      <c r="B233" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C233" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>352</v>
+      </c>
+      <c r="B234" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C234" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>353</v>
+      </c>
+      <c r="B235" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C235" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>354</v>
+      </c>
+      <c r="B236" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C236" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>355</v>
+      </c>
+      <c r="B237" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C237" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>356</v>
+      </c>
+      <c r="B238" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C238" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>357</v>
+      </c>
+      <c r="B239" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C239" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>358</v>
+      </c>
+      <c r="B240" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C240" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>359</v>
+      </c>
+      <c r="B241" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C241" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>360</v>
+      </c>
+      <c r="B242" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C242" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>361</v>
+      </c>
+      <c r="B243" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C243" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>362</v>
+      </c>
+      <c r="B244" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C244" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>363</v>
+      </c>
+      <c r="B245" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C245" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>364</v>
+      </c>
+      <c r="B246" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C246" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>365</v>
+      </c>
+      <c r="B247" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C247" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>366</v>
+      </c>
+      <c r="B248" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C248" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>367</v>
+      </c>
+      <c r="B249" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C249" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>368</v>
+      </c>
+      <c r="B250" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C250" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>369</v>
+      </c>
+      <c r="B251" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C251" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>370</v>
+      </c>
+      <c r="B252" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C252" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>371</v>
+      </c>
+      <c r="B253" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C253" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>372</v>
+      </c>
+      <c r="B254" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C254" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>373</v>
+      </c>
+      <c r="B255" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C255" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>374</v>
+      </c>
+      <c r="B256" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C256" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>375</v>
+      </c>
+      <c r="B257" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C257" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>376</v>
+      </c>
+      <c r="B258" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C258" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>377</v>
+      </c>
+      <c r="B259" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C259" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>378</v>
+      </c>
+      <c r="B260" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C260" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>379</v>
+      </c>
+      <c r="B261" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C261" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>380</v>
+      </c>
+      <c r="B262" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C262" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>381</v>
+      </c>
+      <c r="B263" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C263" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>382</v>
+      </c>
+      <c r="B264" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C264" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>383</v>
+      </c>
+      <c r="B265" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C265" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>384</v>
+      </c>
+      <c r="B266" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C266" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>385</v>
+      </c>
+      <c r="B267" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C267" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>386</v>
+      </c>
+      <c r="B268" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C268" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>387</v>
+      </c>
+      <c r="B269" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C269" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>388</v>
+      </c>
+      <c r="B270" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C270" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>389</v>
+      </c>
+      <c r="B271" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C271" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>390</v>
+      </c>
+      <c r="B272" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C272" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>391</v>
+      </c>
+      <c r="B273" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C273" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>392</v>
+      </c>
+      <c r="B274" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C274" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>393</v>
+      </c>
+      <c r="B275" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C275" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>394</v>
+      </c>
+      <c r="B276" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C276" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>395</v>
+      </c>
+      <c r="B277" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C277" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>396</v>
+      </c>
+      <c r="B278" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C278" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>397</v>
+      </c>
+      <c r="B279" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C279" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>398</v>
+      </c>
+      <c r="B280" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C280" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>399</v>
+      </c>
+      <c r="B281" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C281" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>400</v>
+      </c>
+      <c r="B282" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C282" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>401</v>
+      </c>
+      <c r="B283" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C283" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>402</v>
+      </c>
+      <c r="B284" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C284" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>403</v>
+      </c>
+      <c r="B285" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C285" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>404</v>
+      </c>
+      <c r="B286" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C286" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>405</v>
+      </c>
+      <c r="B287" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C287" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>406</v>
+      </c>
+      <c r="B288" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C288" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>407</v>
+      </c>
+      <c r="B289" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C289" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>408</v>
+      </c>
+      <c r="B290" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C290" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>409</v>
+      </c>
+      <c r="B291" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C291" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>410</v>
+      </c>
+      <c r="B292" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C292" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>411</v>
+      </c>
+      <c r="B293" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C293" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>412</v>
+      </c>
+      <c r="B294" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C294" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>413</v>
+      </c>
+      <c r="B295" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C295" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>414</v>
+      </c>
+      <c r="B296" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C296" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>415</v>
+      </c>
+      <c r="B297" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C297" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>416</v>
+      </c>
+      <c r="B298" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C298" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>417</v>
+      </c>
+      <c r="B299" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C299" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>418</v>
+      </c>
+      <c r="B300" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C300" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>419</v>
+      </c>
+      <c r="B301" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C301" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>420</v>
+      </c>
+      <c r="B302" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C302" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>421</v>
+      </c>
+      <c r="B303" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C303" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>422</v>
+      </c>
+      <c r="B304" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C304" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>423</v>
+      </c>
+      <c r="B305" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C305" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>424</v>
+      </c>
+      <c r="B306" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C306" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>425</v>
+      </c>
+      <c r="B307" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C307" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>426</v>
+      </c>
+      <c r="B308" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C308" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>427</v>
+      </c>
+      <c r="B309" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C309" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>428</v>
+      </c>
+      <c r="B310" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C310" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>429</v>
+      </c>
+      <c r="B311" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C311" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>430</v>
+      </c>
+      <c r="B312" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C312" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>431</v>
+      </c>
+      <c r="B313" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C313" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>432</v>
+      </c>
+      <c r="B314" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C314" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>433</v>
+      </c>
+      <c r="B315" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C315" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>434</v>
+      </c>
+      <c r="B316" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C316" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>435</v>
+      </c>
+      <c r="B317" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C317" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>436</v>
+      </c>
+      <c r="B318" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C318" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>437</v>
+      </c>
+      <c r="B319" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C319" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>438</v>
+      </c>
+      <c r="B320" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C320" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>439</v>
+      </c>
+      <c r="B321" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C321" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>440</v>
+      </c>
+      <c r="B322" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C322" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>441</v>
+      </c>
+      <c r="B323" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C323" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>442</v>
+      </c>
+      <c r="B324" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C324" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>443</v>
+      </c>
+      <c r="B325" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C325" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>444</v>
+      </c>
+      <c r="B326" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C326" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>445</v>
+      </c>
+      <c r="B327" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C327" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>446</v>
+      </c>
+      <c r="B328" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C328" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>447</v>
+      </c>
+      <c r="B329" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C329" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>448</v>
+      </c>
+      <c r="B330" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C330" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>449</v>
+      </c>
+      <c r="B331" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C331" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>450</v>
+      </c>
+      <c r="B332" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C332" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>451</v>
+      </c>
+      <c r="B333" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C333" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>452</v>
+      </c>
+      <c r="B334" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C334" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>453</v>
+      </c>
+      <c r="B335" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C335" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>454</v>
+      </c>
+      <c r="B336" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C336" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>455</v>
+      </c>
+      <c r="B337" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C337" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>456</v>
+      </c>
+      <c r="B338" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C338" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>457</v>
+      </c>
+      <c r="B339" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C339" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>458</v>
+      </c>
+      <c r="B340" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C340" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>459</v>
+      </c>
+      <c r="B341" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C341" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>460</v>
+      </c>
+      <c r="B342" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C342" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>461</v>
+      </c>
+      <c r="B343" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C343" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>462</v>
+      </c>
+      <c r="B344" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C344" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>463</v>
+      </c>
+      <c r="B345" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C345" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>464</v>
+      </c>
+      <c r="B346" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C346" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>465</v>
+      </c>
+      <c r="B347" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C347" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>466</v>
+      </c>
+      <c r="B348" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C348" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>467</v>
+      </c>
+      <c r="B349" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C349" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>468</v>
+      </c>
+      <c r="B350" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C350" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>469</v>
+      </c>
+      <c r="B351" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C351" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>470</v>
+      </c>
+      <c r="B352" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C352" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>471</v>
+      </c>
+      <c r="B353" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C353" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>472</v>
+      </c>
+      <c r="B354" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C354" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>473</v>
+      </c>
+      <c r="B355" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C355" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>474</v>
+      </c>
+      <c r="B356" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C356" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>475</v>
+      </c>
+      <c r="B357" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C357" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>476</v>
+      </c>
+      <c r="B358" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C358" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>477</v>
+      </c>
+      <c r="B359" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C359" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>478</v>
+      </c>
+      <c r="B360" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C360" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>479</v>
+      </c>
+      <c r="B361" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C361" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>480</v>
+      </c>
+      <c r="B362" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C362" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>481</v>
+      </c>
+      <c r="B363" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C363" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>482</v>
+      </c>
+      <c r="B364" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C364" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>483</v>
+      </c>
+      <c r="B365" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C365" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>484</v>
+      </c>
+      <c r="B366" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C366" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>485</v>
+      </c>
+      <c r="B367" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C367" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>486</v>
+      </c>
+      <c r="B368" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C368" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>487</v>
+      </c>
+      <c r="B369" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C369" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>488</v>
+      </c>
+      <c r="B370" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C370" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>489</v>
+      </c>
+      <c r="B371" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C371" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>490</v>
+      </c>
+      <c r="B372" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C372" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>491</v>
+      </c>
+      <c r="B373" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C373" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>492</v>
+      </c>
+      <c r="B374" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C374" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>493</v>
+      </c>
+      <c r="B375" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C375" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>494</v>
+      </c>
+      <c r="B376" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C376" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>495</v>
+      </c>
+      <c r="B377" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C377" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>496</v>
+      </c>
+      <c r="B378" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C378" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>497</v>
+      </c>
+      <c r="B379" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C379" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>498</v>
+      </c>
+      <c r="B380" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C380" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>499</v>
+      </c>
+      <c r="B381" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C381" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>500</v>
+      </c>
+      <c r="B382" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C382" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>501</v>
+      </c>
+      <c r="B383" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C383" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>502</v>
+      </c>
+      <c r="B384" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C384" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>503</v>
+      </c>
+      <c r="B385" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C385" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>504</v>
+      </c>
+      <c r="B386" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C386" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>505</v>
+      </c>
+      <c r="B387" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C387" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>506</v>
+      </c>
+      <c r="B388" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C388" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>507</v>
+      </c>
+      <c r="B389" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C389" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>508</v>
+      </c>
+      <c r="B390" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C390" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>509</v>
+      </c>
+      <c r="B391" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C391" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>510</v>
+      </c>
+      <c r="B392" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C392" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>511</v>
+      </c>
+      <c r="B393" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C393" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>512</v>
+      </c>
+      <c r="B394" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C394" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>513</v>
+      </c>
+      <c r="B395" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C395" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>514</v>
+      </c>
+      <c r="B396" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C396" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>515</v>
+      </c>
+      <c r="B397" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C397" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>516</v>
+      </c>
+      <c r="B398" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C398" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>517</v>
+      </c>
+      <c r="B399" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C399" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>518</v>
+      </c>
+      <c r="B400" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C400" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>519</v>
+      </c>
+      <c r="B401" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C401" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>520</v>
+      </c>
+      <c r="B402" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C402" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>521</v>
+      </c>
+      <c r="B403" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C403" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>522</v>
+      </c>
+      <c r="B404" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C404" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>523</v>
+      </c>
+      <c r="B405" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C405" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>524</v>
+      </c>
+      <c r="B406" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C406" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>525</v>
+      </c>
+      <c r="B407" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C407" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>526</v>
+      </c>
+      <c r="B408" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C408" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>527</v>
+      </c>
+      <c r="B409" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C409" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>528</v>
+      </c>
+      <c r="B410" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C410" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>529</v>
+      </c>
+      <c r="B411" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C411" s="29" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F22448C-20CF-4F6B-91E2-1D391349B55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B27EF3-7CE3-4E4E-BF16-DC43787DC0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="533">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1752,6 +1752,14 @@
   </si>
   <si>
     <t>(每日複製)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usp_L2_ForeclosureFinished_Upd</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月底日日終批次)更新 ForeclosureFinished 法拍完成檔</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2423,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2801,10 +2809,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G411"/>
+  <dimension ref="A1:G412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2920,57 +2928,57 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C8" s="28" t="s">
+        <v>532</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="29" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="29" t="s">
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>51</v>
@@ -2978,13 +2986,13 @@
     </row>
     <row r="12" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>51</v>
@@ -2992,41 +3000,41 @@
     </row>
     <row r="13" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="C14" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
         <v>51</v>
@@ -3034,69 +3042,69 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B18" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C18" s="28" t="s">
         <v>69</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="28" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>109</v>
       </c>
       <c r="F18" s="28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="29" t="s">
+    <row r="19" spans="1:6" s="28" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="28" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F20" s="29" t="s">
         <v>51</v>
@@ -3104,13 +3112,13 @@
     </row>
     <row r="21" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>51</v>
@@ -3118,13 +3126,13 @@
     </row>
     <row r="22" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>51</v>
@@ -3132,13 +3140,13 @@
     </row>
     <row r="23" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B23" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>51</v>
@@ -3146,13 +3154,13 @@
     </row>
     <row r="24" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>51</v>
@@ -3160,13 +3168,13 @@
     </row>
     <row r="25" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B25" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F25" s="29" t="s">
         <v>51</v>
@@ -3174,13 +3182,13 @@
     </row>
     <row r="26" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F26" s="29" t="s">
         <v>51</v>
@@ -3188,13 +3196,13 @@
     </row>
     <row r="27" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F27" s="29" t="s">
         <v>51</v>
@@ -3202,13 +3210,13 @@
     </row>
     <row r="28" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B28" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>51</v>
@@ -3216,41 +3224,41 @@
     </row>
     <row r="29" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
-        <v>155</v>
+      <c r="A30" s="29" t="s">
+        <v>107</v>
       </c>
       <c r="B30" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F30" s="29" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
-        <v>76</v>
+      <c r="A31" s="36" t="s">
+        <v>155</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>51</v>
@@ -3258,13 +3266,13 @@
     </row>
     <row r="32" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F32" s="29" t="s">
         <v>51</v>
@@ -3272,13 +3280,13 @@
     </row>
     <row r="33" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F33" s="29" t="s">
         <v>51</v>
@@ -3286,13 +3294,13 @@
     </row>
     <row r="34" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F34" s="29" t="s">
         <v>51</v>
@@ -3300,13 +3308,13 @@
     </row>
     <row r="35" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>116</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F35" s="29" t="s">
         <v>51</v>
@@ -3314,27 +3322,27 @@
     </row>
     <row r="36" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F36" s="29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>126</v>
+    <row r="37" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>86</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="F37" s="29" t="s">
         <v>51</v>
@@ -3342,13 +3350,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F38" s="29" t="s">
         <v>51</v>
@@ -3356,13 +3364,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B39" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F39" s="29" t="s">
         <v>51</v>
@@ -3370,13 +3378,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F40" s="29" t="s">
         <v>51</v>
@@ -3384,13 +3392,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F41" s="29" t="s">
         <v>51</v>
@@ -3398,13 +3406,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B42" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F42" s="29" t="s">
         <v>51</v>
@@ -3412,13 +3420,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B43" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F43" s="29" t="s">
         <v>51</v>
@@ -3426,13 +3434,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F44" s="29" t="s">
         <v>51</v>
@@ -3440,13 +3448,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F45" s="29" t="s">
         <v>51</v>
@@ -3454,214 +3462,217 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="G46" t="s">
-        <v>124</v>
+        <v>143</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B47" s="29" t="s">
         <v>117</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="G47" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B48" s="29" t="s">
         <v>117</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>161</v>
       </c>
-      <c r="B49" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C49" s="29" t="s">
+      <c r="B50" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="29" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="51" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>164</v>
       </c>
-      <c r="B50" s="37" t="s">
+      <c r="B51" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C51" s="29" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>167</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B52" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C52" s="29" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>170</v>
       </c>
-      <c r="B52" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="B53" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>171</v>
       </c>
-      <c r="B53" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B54" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>172</v>
       </c>
-      <c r="B54" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="B55" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>173</v>
       </c>
-      <c r="B55" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="B56" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>174</v>
       </c>
-      <c r="B56" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="B57" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>175</v>
       </c>
-      <c r="B57" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C57" s="29" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="B58" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>176</v>
       </c>
-      <c r="B58" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="29" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="B59" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>177</v>
       </c>
-      <c r="B59" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="B60" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>178</v>
       </c>
-      <c r="B60" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="B61" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>179</v>
       </c>
-      <c r="B61" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C61" s="29" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="B62" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>180</v>
       </c>
-      <c r="B62" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="B63" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>181</v>
-      </c>
-      <c r="B63" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C63" s="29" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>182</v>
       </c>
       <c r="B64" s="29" t="s">
         <v>162</v>
@@ -3672,7 +3683,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B65" s="29" t="s">
         <v>162</v>
@@ -3683,7 +3694,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B66" s="29" t="s">
         <v>162</v>
@@ -3694,7 +3705,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B67" s="29" t="s">
         <v>162</v>
@@ -3705,7 +3716,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B68" s="29" t="s">
         <v>162</v>
@@ -3716,7 +3727,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B69" s="29" t="s">
         <v>162</v>
@@ -3727,7 +3738,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B70" s="29" t="s">
         <v>162</v>
@@ -3738,7 +3749,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B71" s="29" t="s">
         <v>162</v>
@@ -3749,7 +3760,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B72" s="29" t="s">
         <v>162</v>
@@ -3760,7 +3771,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B73" s="29" t="s">
         <v>162</v>
@@ -3771,7 +3782,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B74" s="29" t="s">
         <v>162</v>
@@ -3782,7 +3793,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B75" s="29" t="s">
         <v>162</v>
@@ -3793,7 +3804,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B76" s="29" t="s">
         <v>162</v>
@@ -3804,7 +3815,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B77" s="29" t="s">
         <v>162</v>
@@ -3815,7 +3826,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B78" s="29" t="s">
         <v>162</v>
@@ -3826,7 +3837,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B79" s="29" t="s">
         <v>162</v>
@@ -3837,7 +3848,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B80" s="29" t="s">
         <v>162</v>
@@ -3848,7 +3859,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B81" s="29" t="s">
         <v>162</v>
@@ -3859,7 +3870,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B82" s="29" t="s">
         <v>162</v>
@@ -3870,7 +3881,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B83" s="29" t="s">
         <v>162</v>
@@ -3881,7 +3892,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B84" s="29" t="s">
         <v>162</v>
@@ -3892,7 +3903,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B85" s="29" t="s">
         <v>162</v>
@@ -3903,7 +3914,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B86" s="29" t="s">
         <v>162</v>
@@ -3914,7 +3925,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B87" s="29" t="s">
         <v>162</v>
@@ -3925,7 +3936,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B88" s="29" t="s">
         <v>162</v>
@@ -3936,7 +3947,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B89" s="29" t="s">
         <v>162</v>
@@ -3947,7 +3958,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B90" s="29" t="s">
         <v>162</v>
@@ -3958,7 +3969,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B91" s="29" t="s">
         <v>162</v>
@@ -3969,7 +3980,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B92" s="29" t="s">
         <v>162</v>
@@ -3980,7 +3991,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B93" s="29" t="s">
         <v>162</v>
@@ -3991,7 +4002,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B94" s="29" t="s">
         <v>162</v>
@@ -4002,7 +4013,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B95" s="29" t="s">
         <v>162</v>
@@ -4013,7 +4024,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B96" s="29" t="s">
         <v>162</v>
@@ -4024,7 +4035,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B97" s="29" t="s">
         <v>162</v>
@@ -4035,7 +4046,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B98" s="29" t="s">
         <v>162</v>
@@ -4046,7 +4057,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B99" s="29" t="s">
         <v>162</v>
@@ -4057,7 +4068,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B100" s="29" t="s">
         <v>162</v>
@@ -4068,7 +4079,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B101" s="29" t="s">
         <v>162</v>
@@ -4079,7 +4090,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B102" s="29" t="s">
         <v>162</v>
@@ -4090,7 +4101,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B103" s="29" t="s">
         <v>162</v>
@@ -4101,7 +4112,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B104" s="29" t="s">
         <v>162</v>
@@ -4112,7 +4123,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B105" s="29" t="s">
         <v>162</v>
@@ -4123,7 +4134,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B106" s="29" t="s">
         <v>162</v>
@@ -4134,7 +4145,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B107" s="29" t="s">
         <v>162</v>
@@ -4145,7 +4156,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B108" s="29" t="s">
         <v>162</v>
@@ -4156,7 +4167,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B109" s="29" t="s">
         <v>162</v>
@@ -4167,7 +4178,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B110" s="29" t="s">
         <v>162</v>
@@ -4178,7 +4189,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B111" s="29" t="s">
         <v>162</v>
@@ -4189,7 +4200,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B112" s="29" t="s">
         <v>162</v>
@@ -4200,7 +4211,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B113" s="29" t="s">
         <v>162</v>
@@ -4211,7 +4222,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B114" s="29" t="s">
         <v>162</v>
@@ -4222,7 +4233,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B115" s="29" t="s">
         <v>162</v>
@@ -4233,7 +4244,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B116" s="29" t="s">
         <v>162</v>
@@ -4244,7 +4255,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B117" s="29" t="s">
         <v>162</v>
@@ -4255,7 +4266,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B118" s="29" t="s">
         <v>162</v>
@@ -4266,7 +4277,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B119" s="29" t="s">
         <v>162</v>
@@ -4277,7 +4288,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B120" s="29" t="s">
         <v>162</v>
@@ -4288,7 +4299,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B121" s="29" t="s">
         <v>162</v>
@@ -4299,7 +4310,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B122" s="29" t="s">
         <v>162</v>
@@ -4310,7 +4321,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B123" s="29" t="s">
         <v>162</v>
@@ -4321,7 +4332,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B124" s="29" t="s">
         <v>162</v>
@@ -4332,7 +4343,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B125" s="29" t="s">
         <v>162</v>
@@ -4343,7 +4354,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B126" s="29" t="s">
         <v>162</v>
@@ -4354,7 +4365,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B127" s="29" t="s">
         <v>162</v>
@@ -4365,7 +4376,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B128" s="29" t="s">
         <v>162</v>
@@ -4376,7 +4387,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B129" s="29" t="s">
         <v>162</v>
@@ -4387,7 +4398,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B130" s="29" t="s">
         <v>162</v>
@@ -4398,7 +4409,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B131" s="29" t="s">
         <v>162</v>
@@ -4409,7 +4420,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B132" s="29" t="s">
         <v>162</v>
@@ -4420,7 +4431,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B133" s="29" t="s">
         <v>162</v>
@@ -4431,7 +4442,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B134" s="29" t="s">
         <v>162</v>
@@ -4442,7 +4453,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B135" s="29" t="s">
         <v>162</v>
@@ -4453,7 +4464,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B136" s="29" t="s">
         <v>162</v>
@@ -4464,7 +4475,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B137" s="29" t="s">
         <v>162</v>
@@ -4475,7 +4486,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B138" s="29" t="s">
         <v>162</v>
@@ -4486,7 +4497,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B139" s="29" t="s">
         <v>162</v>
@@ -4497,7 +4508,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B140" s="29" t="s">
         <v>162</v>
@@ -4508,7 +4519,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B141" s="29" t="s">
         <v>162</v>
@@ -4519,7 +4530,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B142" s="29" t="s">
         <v>162</v>
@@ -4530,7 +4541,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B143" s="29" t="s">
         <v>162</v>
@@ -4541,7 +4552,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B144" s="29" t="s">
         <v>162</v>
@@ -4552,7 +4563,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B145" s="29" t="s">
         <v>162</v>
@@ -4563,7 +4574,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B146" s="29" t="s">
         <v>162</v>
@@ -4574,7 +4585,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B147" s="29" t="s">
         <v>162</v>
@@ -4585,7 +4596,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B148" s="29" t="s">
         <v>162</v>
@@ -4596,7 +4607,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B149" s="29" t="s">
         <v>162</v>
@@ -4607,7 +4618,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B150" s="29" t="s">
         <v>162</v>
@@ -4618,7 +4629,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B151" s="29" t="s">
         <v>162</v>
@@ -4629,7 +4640,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B152" s="29" t="s">
         <v>162</v>
@@ -4640,7 +4651,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B153" s="29" t="s">
         <v>162</v>
@@ -4651,7 +4662,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B154" s="29" t="s">
         <v>162</v>
@@ -4662,7 +4673,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B155" s="29" t="s">
         <v>162</v>
@@ -4673,7 +4684,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B156" s="29" t="s">
         <v>162</v>
@@ -4684,7 +4695,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B157" s="29" t="s">
         <v>162</v>
@@ -4695,7 +4706,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B158" s="29" t="s">
         <v>162</v>
@@ -4706,7 +4717,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B159" s="29" t="s">
         <v>162</v>
@@ -4717,7 +4728,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B160" s="29" t="s">
         <v>162</v>
@@ -4728,7 +4739,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B161" s="29" t="s">
         <v>162</v>
@@ -4739,7 +4750,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B162" s="29" t="s">
         <v>162</v>
@@ -4750,7 +4761,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B163" s="29" t="s">
         <v>162</v>
@@ -4761,7 +4772,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B164" s="29" t="s">
         <v>162</v>
@@ -4772,7 +4783,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B165" s="29" t="s">
         <v>162</v>
@@ -4783,7 +4794,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B166" s="29" t="s">
         <v>162</v>
@@ -4794,7 +4805,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B167" s="29" t="s">
         <v>162</v>
@@ -4805,7 +4816,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B168" s="29" t="s">
         <v>162</v>
@@ -4816,7 +4827,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B169" s="29" t="s">
         <v>162</v>
@@ -4827,7 +4838,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B170" s="29" t="s">
         <v>162</v>
@@ -4838,7 +4849,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B171" s="29" t="s">
         <v>162</v>
@@ -4849,7 +4860,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B172" s="29" t="s">
         <v>162</v>
@@ -4860,7 +4871,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B173" s="29" t="s">
         <v>162</v>
@@ -4871,7 +4882,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B174" s="29" t="s">
         <v>162</v>
@@ -4882,7 +4893,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B175" s="29" t="s">
         <v>162</v>
@@ -4893,7 +4904,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B176" s="29" t="s">
         <v>162</v>
@@ -4904,7 +4915,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B177" s="29" t="s">
         <v>162</v>
@@ -4915,7 +4926,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B178" s="29" t="s">
         <v>162</v>
@@ -4926,7 +4937,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B179" s="29" t="s">
         <v>162</v>
@@ -4937,7 +4948,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B180" s="29" t="s">
         <v>162</v>
@@ -4948,7 +4959,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B181" s="29" t="s">
         <v>162</v>
@@ -4959,7 +4970,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B182" s="29" t="s">
         <v>162</v>
@@ -4970,7 +4981,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B183" s="29" t="s">
         <v>162</v>
@@ -4981,7 +4992,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B184" s="29" t="s">
         <v>162</v>
@@ -4992,7 +5003,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B185" s="29" t="s">
         <v>162</v>
@@ -5003,7 +5014,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B186" s="29" t="s">
         <v>162</v>
@@ -5014,7 +5025,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B187" s="29" t="s">
         <v>162</v>
@@ -5025,7 +5036,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B188" s="29" t="s">
         <v>162</v>
@@ -5036,7 +5047,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B189" s="29" t="s">
         <v>162</v>
@@ -5047,7 +5058,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B190" s="29" t="s">
         <v>162</v>
@@ -5058,7 +5069,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B191" s="29" t="s">
         <v>162</v>
@@ -5069,7 +5080,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B192" s="29" t="s">
         <v>162</v>
@@ -5080,7 +5091,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B193" s="29" t="s">
         <v>162</v>
@@ -5091,7 +5102,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B194" s="29" t="s">
         <v>162</v>
@@ -5102,7 +5113,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B195" s="29" t="s">
         <v>162</v>
@@ -5113,7 +5124,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B196" s="29" t="s">
         <v>162</v>
@@ -5124,7 +5135,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B197" s="29" t="s">
         <v>162</v>
@@ -5135,7 +5146,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B198" s="29" t="s">
         <v>162</v>
@@ -5146,7 +5157,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B199" s="29" t="s">
         <v>162</v>
@@ -5157,7 +5168,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B200" s="29" t="s">
         <v>162</v>
@@ -5168,7 +5179,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B201" s="29" t="s">
         <v>162</v>
@@ -5179,7 +5190,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B202" s="29" t="s">
         <v>162</v>
@@ -5190,7 +5201,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B203" s="29" t="s">
         <v>162</v>
@@ -5201,7 +5212,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B204" s="29" t="s">
         <v>162</v>
@@ -5212,7 +5223,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B205" s="29" t="s">
         <v>162</v>
@@ -5223,7 +5234,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B206" s="29" t="s">
         <v>162</v>
@@ -5234,7 +5245,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B207" s="29" t="s">
         <v>162</v>
@@ -5245,7 +5256,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B208" s="29" t="s">
         <v>162</v>
@@ -5256,7 +5267,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B209" s="29" t="s">
         <v>162</v>
@@ -5267,7 +5278,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B210" s="29" t="s">
         <v>162</v>
@@ -5278,7 +5289,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B211" s="29" t="s">
         <v>162</v>
@@ -5289,7 +5300,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B212" s="29" t="s">
         <v>162</v>
@@ -5300,7 +5311,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B213" s="29" t="s">
         <v>162</v>
@@ -5311,7 +5322,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B214" s="29" t="s">
         <v>162</v>
@@ -5322,7 +5333,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B215" s="29" t="s">
         <v>162</v>
@@ -5333,7 +5344,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B216" s="29" t="s">
         <v>162</v>
@@ -5344,7 +5355,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B217" s="29" t="s">
         <v>162</v>
@@ -5355,7 +5366,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B218" s="29" t="s">
         <v>162</v>
@@ -5366,7 +5377,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B219" s="29" t="s">
         <v>162</v>
@@ -5377,7 +5388,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B220" s="29" t="s">
         <v>162</v>
@@ -5388,7 +5399,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B221" s="29" t="s">
         <v>162</v>
@@ -5399,7 +5410,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B222" s="29" t="s">
         <v>162</v>
@@ -5410,7 +5421,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B223" s="29" t="s">
         <v>162</v>
@@ -5421,7 +5432,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B224" s="29" t="s">
         <v>162</v>
@@ -5432,7 +5443,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B225" s="29" t="s">
         <v>162</v>
@@ -5443,7 +5454,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B226" s="29" t="s">
         <v>162</v>
@@ -5454,7 +5465,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B227" s="29" t="s">
         <v>162</v>
@@ -5465,7 +5476,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B228" s="29" t="s">
         <v>162</v>
@@ -5476,7 +5487,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B229" s="29" t="s">
         <v>162</v>
@@ -5487,7 +5498,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B230" s="29" t="s">
         <v>162</v>
@@ -5498,7 +5509,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B231" s="29" t="s">
         <v>162</v>
@@ -5509,7 +5520,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B232" s="29" t="s">
         <v>162</v>
@@ -5520,7 +5531,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B233" s="29" t="s">
         <v>162</v>
@@ -5531,7 +5542,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B234" s="29" t="s">
         <v>162</v>
@@ -5542,7 +5553,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B235" s="29" t="s">
         <v>162</v>
@@ -5553,7 +5564,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B236" s="29" t="s">
         <v>162</v>
@@ -5564,7 +5575,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B237" s="29" t="s">
         <v>162</v>
@@ -5575,7 +5586,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B238" s="29" t="s">
         <v>162</v>
@@ -5586,7 +5597,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B239" s="29" t="s">
         <v>162</v>
@@ -5597,7 +5608,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B240" s="29" t="s">
         <v>162</v>
@@ -5608,7 +5619,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B241" s="29" t="s">
         <v>162</v>
@@ -5619,7 +5630,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B242" s="29" t="s">
         <v>162</v>
@@ -5630,7 +5641,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B243" s="29" t="s">
         <v>162</v>
@@ -5641,7 +5652,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B244" s="29" t="s">
         <v>162</v>
@@ -5652,7 +5663,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B245" s="29" t="s">
         <v>162</v>
@@ -5663,7 +5674,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B246" s="29" t="s">
         <v>162</v>
@@ -5674,7 +5685,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B247" s="29" t="s">
         <v>162</v>
@@ -5685,7 +5696,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B248" s="29" t="s">
         <v>162</v>
@@ -5696,7 +5707,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B249" s="29" t="s">
         <v>162</v>
@@ -5707,7 +5718,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B250" s="29" t="s">
         <v>162</v>
@@ -5718,7 +5729,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B251" s="29" t="s">
         <v>162</v>
@@ -5729,7 +5740,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B252" s="29" t="s">
         <v>162</v>
@@ -5740,7 +5751,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B253" s="29" t="s">
         <v>162</v>
@@ -5751,7 +5762,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B254" s="29" t="s">
         <v>162</v>
@@ -5762,7 +5773,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B255" s="29" t="s">
         <v>162</v>
@@ -5773,7 +5784,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B256" s="29" t="s">
         <v>162</v>
@@ -5784,7 +5795,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B257" s="29" t="s">
         <v>162</v>
@@ -5795,7 +5806,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B258" s="29" t="s">
         <v>162</v>
@@ -5806,7 +5817,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B259" s="29" t="s">
         <v>162</v>
@@ -5817,7 +5828,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B260" s="29" t="s">
         <v>162</v>
@@ -5828,7 +5839,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B261" s="29" t="s">
         <v>162</v>
@@ -5839,7 +5850,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B262" s="29" t="s">
         <v>162</v>
@@ -5850,7 +5861,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B263" s="29" t="s">
         <v>162</v>
@@ -5861,7 +5872,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B264" s="29" t="s">
         <v>162</v>
@@ -5872,7 +5883,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B265" s="29" t="s">
         <v>162</v>
@@ -5883,7 +5894,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B266" s="29" t="s">
         <v>162</v>
@@ -5894,7 +5905,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B267" s="29" t="s">
         <v>162</v>
@@ -5905,7 +5916,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B268" s="29" t="s">
         <v>162</v>
@@ -5916,7 +5927,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B269" s="29" t="s">
         <v>162</v>
@@ -5927,7 +5938,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B270" s="29" t="s">
         <v>162</v>
@@ -5938,7 +5949,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B271" s="29" t="s">
         <v>162</v>
@@ -5949,7 +5960,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B272" s="29" t="s">
         <v>162</v>
@@ -5960,7 +5971,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B273" s="29" t="s">
         <v>162</v>
@@ -5971,7 +5982,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B274" s="29" t="s">
         <v>162</v>
@@ -5982,7 +5993,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B275" s="29" t="s">
         <v>162</v>
@@ -5993,7 +6004,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B276" s="29" t="s">
         <v>162</v>
@@ -6004,7 +6015,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B277" s="29" t="s">
         <v>162</v>
@@ -6015,7 +6026,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B278" s="29" t="s">
         <v>162</v>
@@ -6026,7 +6037,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B279" s="29" t="s">
         <v>162</v>
@@ -6037,7 +6048,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B280" s="29" t="s">
         <v>162</v>
@@ -6048,7 +6059,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B281" s="29" t="s">
         <v>162</v>
@@ -6059,7 +6070,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B282" s="29" t="s">
         <v>162</v>
@@ -6070,7 +6081,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B283" s="29" t="s">
         <v>162</v>
@@ -6081,7 +6092,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B284" s="29" t="s">
         <v>162</v>
@@ -6092,7 +6103,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B285" s="29" t="s">
         <v>162</v>
@@ -6103,7 +6114,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B286" s="29" t="s">
         <v>162</v>
@@ -6114,7 +6125,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B287" s="29" t="s">
         <v>162</v>
@@ -6125,7 +6136,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B288" s="29" t="s">
         <v>162</v>
@@ -6136,7 +6147,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B289" s="29" t="s">
         <v>162</v>
@@ -6147,7 +6158,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B290" s="29" t="s">
         <v>162</v>
@@ -6158,7 +6169,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B291" s="29" t="s">
         <v>162</v>
@@ -6169,7 +6180,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B292" s="29" t="s">
         <v>162</v>
@@ -6180,7 +6191,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B293" s="29" t="s">
         <v>162</v>
@@ -6191,7 +6202,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B294" s="29" t="s">
         <v>162</v>
@@ -6202,7 +6213,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B295" s="29" t="s">
         <v>162</v>
@@ -6213,7 +6224,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B296" s="29" t="s">
         <v>162</v>
@@ -6224,7 +6235,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B297" s="29" t="s">
         <v>162</v>
@@ -6235,7 +6246,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B298" s="29" t="s">
         <v>162</v>
@@ -6246,7 +6257,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B299" s="29" t="s">
         <v>162</v>
@@ -6257,7 +6268,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B300" s="29" t="s">
         <v>162</v>
@@ -6268,7 +6279,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B301" s="29" t="s">
         <v>162</v>
@@ -6279,7 +6290,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B302" s="29" t="s">
         <v>162</v>
@@ -6290,7 +6301,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B303" s="29" t="s">
         <v>162</v>
@@ -6301,7 +6312,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B304" s="29" t="s">
         <v>162</v>
@@ -6312,7 +6323,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B305" s="29" t="s">
         <v>162</v>
@@ -6323,7 +6334,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B306" s="29" t="s">
         <v>162</v>
@@ -6334,7 +6345,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B307" s="29" t="s">
         <v>162</v>
@@ -6345,7 +6356,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B308" s="29" t="s">
         <v>162</v>
@@ -6356,7 +6367,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B309" s="29" t="s">
         <v>162</v>
@@ -6367,7 +6378,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B310" s="29" t="s">
         <v>162</v>
@@ -6378,7 +6389,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B311" s="29" t="s">
         <v>162</v>
@@ -6389,7 +6400,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B312" s="29" t="s">
         <v>162</v>
@@ -6400,7 +6411,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B313" s="29" t="s">
         <v>162</v>
@@ -6411,7 +6422,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B314" s="29" t="s">
         <v>162</v>
@@ -6422,7 +6433,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B315" s="29" t="s">
         <v>162</v>
@@ -6433,7 +6444,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B316" s="29" t="s">
         <v>162</v>
@@ -6444,7 +6455,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B317" s="29" t="s">
         <v>162</v>
@@ -6455,7 +6466,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B318" s="29" t="s">
         <v>162</v>
@@ -6466,7 +6477,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B319" s="29" t="s">
         <v>162</v>
@@ -6477,7 +6488,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B320" s="29" t="s">
         <v>162</v>
@@ -6488,7 +6499,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B321" s="29" t="s">
         <v>162</v>
@@ -6499,7 +6510,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B322" s="29" t="s">
         <v>162</v>
@@ -6510,7 +6521,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B323" s="29" t="s">
         <v>162</v>
@@ -6521,7 +6532,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B324" s="29" t="s">
         <v>162</v>
@@ -6532,7 +6543,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B325" s="29" t="s">
         <v>162</v>
@@ -6543,7 +6554,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B326" s="29" t="s">
         <v>162</v>
@@ -6554,7 +6565,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B327" s="29" t="s">
         <v>162</v>
@@ -6565,7 +6576,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B328" s="29" t="s">
         <v>162</v>
@@ -6576,7 +6587,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B329" s="29" t="s">
         <v>162</v>
@@ -6587,7 +6598,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B330" s="29" t="s">
         <v>162</v>
@@ -6598,7 +6609,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B331" s="29" t="s">
         <v>162</v>
@@ -6609,7 +6620,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B332" s="29" t="s">
         <v>162</v>
@@ -6620,7 +6631,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B333" s="29" t="s">
         <v>162</v>
@@ -6631,7 +6642,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B334" s="29" t="s">
         <v>162</v>
@@ -6642,7 +6653,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B335" s="29" t="s">
         <v>162</v>
@@ -6653,7 +6664,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B336" s="29" t="s">
         <v>162</v>
@@ -6664,7 +6675,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B337" s="29" t="s">
         <v>162</v>
@@ -6675,7 +6686,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B338" s="29" t="s">
         <v>162</v>
@@ -6686,7 +6697,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B339" s="29" t="s">
         <v>162</v>
@@ -6697,7 +6708,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B340" s="29" t="s">
         <v>162</v>
@@ -6708,7 +6719,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B341" s="29" t="s">
         <v>162</v>
@@ -6719,7 +6730,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B342" s="29" t="s">
         <v>162</v>
@@ -6730,7 +6741,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B343" s="29" t="s">
         <v>162</v>
@@ -6741,7 +6752,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B344" s="29" t="s">
         <v>162</v>
@@ -6752,7 +6763,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B345" s="29" t="s">
         <v>162</v>
@@ -6763,7 +6774,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B346" s="29" t="s">
         <v>162</v>
@@ -6774,7 +6785,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B347" s="29" t="s">
         <v>162</v>
@@ -6785,7 +6796,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B348" s="29" t="s">
         <v>162</v>
@@ -6796,7 +6807,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B349" s="29" t="s">
         <v>162</v>
@@ -6807,7 +6818,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B350" s="29" t="s">
         <v>162</v>
@@ -6818,7 +6829,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B351" s="29" t="s">
         <v>162</v>
@@ -6829,7 +6840,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B352" s="29" t="s">
         <v>162</v>
@@ -6840,7 +6851,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B353" s="29" t="s">
         <v>162</v>
@@ -6851,7 +6862,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B354" s="29" t="s">
         <v>162</v>
@@ -6862,7 +6873,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B355" s="29" t="s">
         <v>162</v>
@@ -6873,7 +6884,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B356" s="29" t="s">
         <v>162</v>
@@ -6884,7 +6895,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B357" s="29" t="s">
         <v>162</v>
@@ -6895,7 +6906,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B358" s="29" t="s">
         <v>162</v>
@@ -6906,7 +6917,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B359" s="29" t="s">
         <v>162</v>
@@ -6917,7 +6928,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B360" s="29" t="s">
         <v>162</v>
@@ -6928,7 +6939,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B361" s="29" t="s">
         <v>162</v>
@@ -6939,7 +6950,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B362" s="29" t="s">
         <v>162</v>
@@ -6950,7 +6961,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B363" s="29" t="s">
         <v>162</v>
@@ -6961,7 +6972,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B364" s="29" t="s">
         <v>162</v>
@@ -6972,7 +6983,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B365" s="29" t="s">
         <v>162</v>
@@ -6983,7 +6994,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B366" s="29" t="s">
         <v>162</v>
@@ -6994,7 +7005,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B367" s="29" t="s">
         <v>162</v>
@@ -7005,7 +7016,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B368" s="29" t="s">
         <v>162</v>
@@ -7016,7 +7027,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B369" s="29" t="s">
         <v>162</v>
@@ -7027,7 +7038,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B370" s="29" t="s">
         <v>162</v>
@@ -7038,7 +7049,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B371" s="29" t="s">
         <v>162</v>
@@ -7049,7 +7060,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B372" s="29" t="s">
         <v>162</v>
@@ -7060,7 +7071,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B373" s="29" t="s">
         <v>162</v>
@@ -7071,7 +7082,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B374" s="29" t="s">
         <v>162</v>
@@ -7082,7 +7093,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B375" s="29" t="s">
         <v>162</v>
@@ -7093,7 +7104,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B376" s="29" t="s">
         <v>162</v>
@@ -7104,7 +7115,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B377" s="29" t="s">
         <v>162</v>
@@ -7115,7 +7126,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B378" s="29" t="s">
         <v>162</v>
@@ -7126,7 +7137,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B379" s="29" t="s">
         <v>162</v>
@@ -7137,7 +7148,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B380" s="29" t="s">
         <v>162</v>
@@ -7148,7 +7159,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B381" s="29" t="s">
         <v>162</v>
@@ -7159,7 +7170,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B382" s="29" t="s">
         <v>162</v>
@@ -7170,7 +7181,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B383" s="29" t="s">
         <v>162</v>
@@ -7181,7 +7192,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B384" s="29" t="s">
         <v>162</v>
@@ -7192,7 +7203,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B385" s="29" t="s">
         <v>162</v>
@@ -7203,7 +7214,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B386" s="29" t="s">
         <v>162</v>
@@ -7214,7 +7225,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B387" s="29" t="s">
         <v>162</v>
@@ -7225,7 +7236,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B388" s="29" t="s">
         <v>162</v>
@@ -7236,7 +7247,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B389" s="29" t="s">
         <v>162</v>
@@ -7247,7 +7258,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B390" s="29" t="s">
         <v>162</v>
@@ -7258,7 +7269,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B391" s="29" t="s">
         <v>162</v>
@@ -7269,7 +7280,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B392" s="29" t="s">
         <v>162</v>
@@ -7280,7 +7291,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B393" s="29" t="s">
         <v>162</v>
@@ -7291,7 +7302,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B394" s="29" t="s">
         <v>162</v>
@@ -7302,7 +7313,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B395" s="29" t="s">
         <v>162</v>
@@ -7313,7 +7324,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B396" s="29" t="s">
         <v>162</v>
@@ -7324,7 +7335,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B397" s="29" t="s">
         <v>162</v>
@@ -7335,7 +7346,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B398" s="29" t="s">
         <v>162</v>
@@ -7346,7 +7357,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B399" s="29" t="s">
         <v>162</v>
@@ -7357,7 +7368,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B400" s="29" t="s">
         <v>162</v>
@@ -7368,7 +7379,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B401" s="29" t="s">
         <v>162</v>
@@ -7379,7 +7390,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B402" s="29" t="s">
         <v>162</v>
@@ -7390,7 +7401,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B403" s="29" t="s">
         <v>162</v>
@@ -7401,7 +7412,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B404" s="29" t="s">
         <v>162</v>
@@ -7412,7 +7423,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B405" s="29" t="s">
         <v>162</v>
@@ -7423,7 +7434,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B406" s="29" t="s">
         <v>162</v>
@@ -7434,7 +7445,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B407" s="29" t="s">
         <v>162</v>
@@ -7445,7 +7456,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B408" s="29" t="s">
         <v>162</v>
@@ -7456,7 +7467,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B409" s="29" t="s">
         <v>162</v>
@@ -7467,7 +7478,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B410" s="29" t="s">
         <v>162</v>
@@ -7478,12 +7489,23 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
+        <v>528</v>
+      </c>
+      <c r="B411" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C411" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
         <v>529</v>
       </c>
-      <c r="B411" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C411" s="29" t="s">
+      <c r="B412" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C412" s="29" t="s">
         <v>530</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B27EF3-7CE3-4E4E-BF16-DC43787DC0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77258323-AD72-476F-AD4B-7DB62B4DEA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="535">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1760,6 +1760,14 @@
   </si>
   <si>
     <t>(月底日日終批次)更新 ForeclosureFinished 法拍完成檔</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usp_L9_DailyTav_Ins</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日終批次)維護 DailyLoanBal每日暫收款餘額檔</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1960,7 +1968,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1976,10 +1984,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1990,9 +1998,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -2005,9 +2010,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2045,29 +2047,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -2431,26 +2415,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" style="14" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="3" t="s">
         <v>58</v>
       </c>
@@ -2462,78 +2446,78 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -2552,201 +2536,201 @@
       <c r="F8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
         <v>1</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="34" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="27" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35">
+    <row r="10" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
         <v>2</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>8</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="35">
+      <c r="A11" s="14">
         <v>3</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>10</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="19" t="s">
+      <c r="F11" s="24"/>
+      <c r="G11" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="35">
+      <c r="A12" s="14">
         <v>4</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="21" t="s">
+      <c r="F12" s="24"/>
+      <c r="G12" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="35">
+      <c r="A13" s="14">
         <v>5</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="21" t="s">
+      <c r="F13" s="24"/>
+      <c r="G13" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="35">
+      <c r="A14" s="14">
         <v>6</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <v>1</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="30" t="s">
+      <c r="F14" s="24"/>
+      <c r="G14" s="26" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="35">
+      <c r="A15" s="14">
         <v>7</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="25">
         <v>6</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="19"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="35">
+      <c r="A16" s="14">
         <v>8</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="19"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="35">
+      <c r="A17" s="14">
         <v>9</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="25">
         <v>6</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="19"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="35">
+      <c r="A18" s="14">
         <v>10</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="19"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2809,10 +2793,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G412"/>
+  <dimension ref="A1:G413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2824,37 +2808,37 @@
     <col min="5" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2900,57 +2884,57 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>534</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C7" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C8" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>531</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>532</v>
-      </c>
-      <c r="E8" s="28" t="s">
+      <c r="D8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>531</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>532</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -2958,97 +2942,97 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C12" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C13" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C14" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
         <v>51</v>
@@ -3056,4456 +3040,4470 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B19" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C19" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="28" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+    <row r="20" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B20" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C20" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C21" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B22" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C22" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C23" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B24" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C24" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B25" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C25" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B26" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C26" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C27" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B28" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C28" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C29" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B30" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C30" t="s">
         <v>157</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B31" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C31" t="s">
         <v>156</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="36" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B32" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C32" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B33" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C33" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C34" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C35" t="s">
         <v>81</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B36" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C36" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B37" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C37" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="29" t="s">
+      <c r="F37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F38" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>127</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="F39" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="F40" s="29" t="s">
+      <c r="C40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="F41" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>131</v>
-      </c>
-      <c r="B43" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F43" s="29" t="s">
+      <c r="C43" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="F44" s="29" t="s">
+      <c r="C44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="F45" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" t="s">
+        <v>141</v>
+      </c>
+      <c r="F45" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>134</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F46" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>118</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="G47" t="s">
-        <v>124</v>
+        <v>134</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>120</v>
-      </c>
-      <c r="B48" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="G48" s="28" t="s">
+      <c r="C48" t="s">
+        <v>119</v>
+      </c>
+      <c r="G48" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>122</v>
-      </c>
-      <c r="B49" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="G49" s="28" t="s">
+      <c r="C49" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>161</v>
       </c>
-      <c r="B50" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C50" s="29" t="s">
+      <c r="B51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="52" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>164</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B52" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C52" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>167</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>170</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>530</v>
+        <v>167</v>
+      </c>
+      <c r="B53" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>171</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>172</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>173</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C56" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>174</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C57" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>175</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>176</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C59" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>177</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C60" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>178</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C61" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>179</v>
-      </c>
-      <c r="B62" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C62" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>180</v>
-      </c>
-      <c r="B63" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C63" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>181</v>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C64" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>182</v>
-      </c>
-      <c r="B65" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C65" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>183</v>
-      </c>
-      <c r="B66" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C66" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B66" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>184</v>
-      </c>
-      <c r="B67" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C67" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>185</v>
-      </c>
-      <c r="B68" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C68" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B68" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>186</v>
-      </c>
-      <c r="B69" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C69" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>187</v>
-      </c>
-      <c r="B70" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C70" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B70" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>188</v>
-      </c>
-      <c r="B71" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C71" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B71" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>189</v>
-      </c>
-      <c r="B72" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C72" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B72" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>190</v>
-      </c>
-      <c r="B73" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C73" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B73" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>191</v>
-      </c>
-      <c r="B74" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C74" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B74" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>192</v>
-      </c>
-      <c r="B75" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C75" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B75" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>193</v>
-      </c>
-      <c r="B76" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C76" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B76" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>194</v>
-      </c>
-      <c r="B77" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C77" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B77" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>195</v>
-      </c>
-      <c r="B78" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C78" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B78" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>196</v>
-      </c>
-      <c r="B79" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C79" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B79" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>197</v>
-      </c>
-      <c r="B80" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B80" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>198</v>
-      </c>
-      <c r="B81" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C81" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B81" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>199</v>
-      </c>
-      <c r="B82" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C82" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B82" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>200</v>
-      </c>
-      <c r="B83" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C83" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B83" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>201</v>
-      </c>
-      <c r="B84" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C84" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B84" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>202</v>
-      </c>
-      <c r="B85" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C85" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B85" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>203</v>
-      </c>
-      <c r="B86" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C86" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="B86" t="s">
+        <v>162</v>
+      </c>
+      <c r="C86" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>204</v>
-      </c>
-      <c r="B87" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C87" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" t="s">
+        <v>162</v>
+      </c>
+      <c r="C87" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>205</v>
-      </c>
-      <c r="B88" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C88" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B88" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>206</v>
-      </c>
-      <c r="B89" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C89" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B89" t="s">
+        <v>162</v>
+      </c>
+      <c r="C89" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>207</v>
-      </c>
-      <c r="B90" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C90" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="B90" t="s">
+        <v>162</v>
+      </c>
+      <c r="C90" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>208</v>
-      </c>
-      <c r="B91" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C91" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B91" t="s">
+        <v>162</v>
+      </c>
+      <c r="C91" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>209</v>
-      </c>
-      <c r="B92" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C92" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B92" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>210</v>
-      </c>
-      <c r="B93" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C93" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="B93" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>211</v>
-      </c>
-      <c r="B94" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C94" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B94" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>212</v>
-      </c>
-      <c r="B95" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C95" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B95" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>213</v>
-      </c>
-      <c r="B96" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C96" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B96" t="s">
+        <v>162</v>
+      </c>
+      <c r="C96" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>214</v>
-      </c>
-      <c r="B97" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C97" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B97" t="s">
+        <v>162</v>
+      </c>
+      <c r="C97" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>215</v>
-      </c>
-      <c r="B98" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C98" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="B98" t="s">
+        <v>162</v>
+      </c>
+      <c r="C98" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>216</v>
-      </c>
-      <c r="B99" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C99" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B99" t="s">
+        <v>162</v>
+      </c>
+      <c r="C99" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>217</v>
-      </c>
-      <c r="B100" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C100" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="B100" t="s">
+        <v>162</v>
+      </c>
+      <c r="C100" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>218</v>
-      </c>
-      <c r="B101" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C101" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="B101" t="s">
+        <v>162</v>
+      </c>
+      <c r="C101" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>219</v>
-      </c>
-      <c r="B102" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C102" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="B102" t="s">
+        <v>162</v>
+      </c>
+      <c r="C102" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>220</v>
-      </c>
-      <c r="B103" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C103" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="B103" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>221</v>
-      </c>
-      <c r="B104" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C104" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B104" t="s">
+        <v>162</v>
+      </c>
+      <c r="C104" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>222</v>
-      </c>
-      <c r="B105" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C105" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="B105" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>223</v>
-      </c>
-      <c r="B106" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C106" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B106" t="s">
+        <v>162</v>
+      </c>
+      <c r="C106" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>224</v>
-      </c>
-      <c r="B107" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C107" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="B107" t="s">
+        <v>162</v>
+      </c>
+      <c r="C107" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>225</v>
-      </c>
-      <c r="B108" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C108" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="B108" t="s">
+        <v>162</v>
+      </c>
+      <c r="C108" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>226</v>
-      </c>
-      <c r="B109" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C109" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="B109" t="s">
+        <v>162</v>
+      </c>
+      <c r="C109" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>227</v>
-      </c>
-      <c r="B110" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C110" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="B110" t="s">
+        <v>162</v>
+      </c>
+      <c r="C110" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>228</v>
-      </c>
-      <c r="B111" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C111" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B111" t="s">
+        <v>162</v>
+      </c>
+      <c r="C111" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>229</v>
-      </c>
-      <c r="B112" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C112" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="B112" t="s">
+        <v>162</v>
+      </c>
+      <c r="C112" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>230</v>
-      </c>
-      <c r="B113" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C113" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B113" t="s">
+        <v>162</v>
+      </c>
+      <c r="C113" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>231</v>
-      </c>
-      <c r="B114" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C114" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="B114" t="s">
+        <v>162</v>
+      </c>
+      <c r="C114" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>232</v>
-      </c>
-      <c r="B115" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C115" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" t="s">
+        <v>162</v>
+      </c>
+      <c r="C115" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>233</v>
-      </c>
-      <c r="B116" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C116" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="B116" t="s">
+        <v>162</v>
+      </c>
+      <c r="C116" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>234</v>
-      </c>
-      <c r="B117" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C117" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117" t="s">
+        <v>162</v>
+      </c>
+      <c r="C117" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>235</v>
-      </c>
-      <c r="B118" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C118" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" t="s">
+        <v>162</v>
+      </c>
+      <c r="C118" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>236</v>
-      </c>
-      <c r="B119" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C119" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="B119" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>237</v>
-      </c>
-      <c r="B120" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C120" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="B120" t="s">
+        <v>162</v>
+      </c>
+      <c r="C120" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>238</v>
-      </c>
-      <c r="B121" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C121" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="B121" t="s">
+        <v>162</v>
+      </c>
+      <c r="C121" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>239</v>
-      </c>
-      <c r="B122" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C122" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="B122" t="s">
+        <v>162</v>
+      </c>
+      <c r="C122" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>240</v>
-      </c>
-      <c r="B123" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C123" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="B123" t="s">
+        <v>162</v>
+      </c>
+      <c r="C123" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>241</v>
-      </c>
-      <c r="B124" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C124" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="B124" t="s">
+        <v>162</v>
+      </c>
+      <c r="C124" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>242</v>
-      </c>
-      <c r="B125" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C125" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="B125" t="s">
+        <v>162</v>
+      </c>
+      <c r="C125" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>243</v>
-      </c>
-      <c r="B126" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C126" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="B126" t="s">
+        <v>162</v>
+      </c>
+      <c r="C126" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>244</v>
-      </c>
-      <c r="B127" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C127" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="B127" t="s">
+        <v>162</v>
+      </c>
+      <c r="C127" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>245</v>
-      </c>
-      <c r="B128" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C128" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="B128" t="s">
+        <v>162</v>
+      </c>
+      <c r="C128" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>246</v>
-      </c>
-      <c r="B129" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C129" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="B129" t="s">
+        <v>162</v>
+      </c>
+      <c r="C129" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>247</v>
-      </c>
-      <c r="B130" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C130" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="B130" t="s">
+        <v>162</v>
+      </c>
+      <c r="C130" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>248</v>
-      </c>
-      <c r="B131" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C131" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="B131" t="s">
+        <v>162</v>
+      </c>
+      <c r="C131" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>249</v>
-      </c>
-      <c r="B132" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C132" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="B132" t="s">
+        <v>162</v>
+      </c>
+      <c r="C132" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>250</v>
-      </c>
-      <c r="B133" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C133" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B133" t="s">
+        <v>162</v>
+      </c>
+      <c r="C133" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>251</v>
-      </c>
-      <c r="B134" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C134" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="B134" t="s">
+        <v>162</v>
+      </c>
+      <c r="C134" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>252</v>
-      </c>
-      <c r="B135" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C135" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="B135" t="s">
+        <v>162</v>
+      </c>
+      <c r="C135" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>253</v>
-      </c>
-      <c r="B136" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C136" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="B136" t="s">
+        <v>162</v>
+      </c>
+      <c r="C136" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>254</v>
-      </c>
-      <c r="B137" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C137" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="B137" t="s">
+        <v>162</v>
+      </c>
+      <c r="C137" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>255</v>
-      </c>
-      <c r="B138" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C138" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B138" t="s">
+        <v>162</v>
+      </c>
+      <c r="C138" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>256</v>
-      </c>
-      <c r="B139" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C139" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="B139" t="s">
+        <v>162</v>
+      </c>
+      <c r="C139" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>257</v>
-      </c>
-      <c r="B140" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C140" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="B140" t="s">
+        <v>162</v>
+      </c>
+      <c r="C140" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>258</v>
-      </c>
-      <c r="B141" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C141" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="B141" t="s">
+        <v>162</v>
+      </c>
+      <c r="C141" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>259</v>
-      </c>
-      <c r="B142" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C142" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B142" t="s">
+        <v>162</v>
+      </c>
+      <c r="C142" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>260</v>
-      </c>
-      <c r="B143" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C143" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="B143" t="s">
+        <v>162</v>
+      </c>
+      <c r="C143" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>261</v>
-      </c>
-      <c r="B144" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C144" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="B144" t="s">
+        <v>162</v>
+      </c>
+      <c r="C144" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>262</v>
-      </c>
-      <c r="B145" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C145" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="B145" t="s">
+        <v>162</v>
+      </c>
+      <c r="C145" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>263</v>
-      </c>
-      <c r="B146" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C146" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="B146" t="s">
+        <v>162</v>
+      </c>
+      <c r="C146" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>264</v>
-      </c>
-      <c r="B147" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C147" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="B147" t="s">
+        <v>162</v>
+      </c>
+      <c r="C147" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>265</v>
-      </c>
-      <c r="B148" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C148" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B148" t="s">
+        <v>162</v>
+      </c>
+      <c r="C148" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>266</v>
-      </c>
-      <c r="B149" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C149" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B149" t="s">
+        <v>162</v>
+      </c>
+      <c r="C149" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>267</v>
-      </c>
-      <c r="B150" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C150" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B150" t="s">
+        <v>162</v>
+      </c>
+      <c r="C150" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>268</v>
-      </c>
-      <c r="B151" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C151" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B151" t="s">
+        <v>162</v>
+      </c>
+      <c r="C151" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>269</v>
-      </c>
-      <c r="B152" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C152" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B152" t="s">
+        <v>162</v>
+      </c>
+      <c r="C152" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>270</v>
-      </c>
-      <c r="B153" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C153" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B153" t="s">
+        <v>162</v>
+      </c>
+      <c r="C153" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>271</v>
-      </c>
-      <c r="B154" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C154" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B154" t="s">
+        <v>162</v>
+      </c>
+      <c r="C154" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>272</v>
-      </c>
-      <c r="B155" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C155" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B155" t="s">
+        <v>162</v>
+      </c>
+      <c r="C155" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>273</v>
-      </c>
-      <c r="B156" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C156" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="B156" t="s">
+        <v>162</v>
+      </c>
+      <c r="C156" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>274</v>
-      </c>
-      <c r="B157" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C157" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="B157" t="s">
+        <v>162</v>
+      </c>
+      <c r="C157" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>275</v>
-      </c>
-      <c r="B158" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C158" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="B158" t="s">
+        <v>162</v>
+      </c>
+      <c r="C158" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>276</v>
-      </c>
-      <c r="B159" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C159" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="B159" t="s">
+        <v>162</v>
+      </c>
+      <c r="C159" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>277</v>
-      </c>
-      <c r="B160" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C160" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="B160" t="s">
+        <v>162</v>
+      </c>
+      <c r="C160" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>278</v>
-      </c>
-      <c r="B161" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C161" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="B161" t="s">
+        <v>162</v>
+      </c>
+      <c r="C161" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>279</v>
-      </c>
-      <c r="B162" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C162" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="B162" t="s">
+        <v>162</v>
+      </c>
+      <c r="C162" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>280</v>
-      </c>
-      <c r="B163" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C163" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="B163" t="s">
+        <v>162</v>
+      </c>
+      <c r="C163" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>281</v>
-      </c>
-      <c r="B164" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C164" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="B164" t="s">
+        <v>162</v>
+      </c>
+      <c r="C164" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>282</v>
-      </c>
-      <c r="B165" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C165" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="B165" t="s">
+        <v>162</v>
+      </c>
+      <c r="C165" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>283</v>
-      </c>
-      <c r="B166" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C166" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="B166" t="s">
+        <v>162</v>
+      </c>
+      <c r="C166" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>284</v>
-      </c>
-      <c r="B167" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C167" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="B167" t="s">
+        <v>162</v>
+      </c>
+      <c r="C167" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>285</v>
-      </c>
-      <c r="B168" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C168" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="B168" t="s">
+        <v>162</v>
+      </c>
+      <c r="C168" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>286</v>
-      </c>
-      <c r="B169" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C169" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="B169" t="s">
+        <v>162</v>
+      </c>
+      <c r="C169" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>287</v>
-      </c>
-      <c r="B170" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C170" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="B170" t="s">
+        <v>162</v>
+      </c>
+      <c r="C170" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>288</v>
-      </c>
-      <c r="B171" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C171" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="B171" t="s">
+        <v>162</v>
+      </c>
+      <c r="C171" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>289</v>
-      </c>
-      <c r="B172" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C172" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="B172" t="s">
+        <v>162</v>
+      </c>
+      <c r="C172" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>290</v>
-      </c>
-      <c r="B173" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C173" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="B173" t="s">
+        <v>162</v>
+      </c>
+      <c r="C173" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>291</v>
-      </c>
-      <c r="B174" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C174" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="B174" t="s">
+        <v>162</v>
+      </c>
+      <c r="C174" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>292</v>
-      </c>
-      <c r="B175" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C175" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="B175" t="s">
+        <v>162</v>
+      </c>
+      <c r="C175" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>293</v>
-      </c>
-      <c r="B176" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C176" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="B176" t="s">
+        <v>162</v>
+      </c>
+      <c r="C176" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>294</v>
-      </c>
-      <c r="B177" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C177" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="B177" t="s">
+        <v>162</v>
+      </c>
+      <c r="C177" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>295</v>
-      </c>
-      <c r="B178" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C178" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="B178" t="s">
+        <v>162</v>
+      </c>
+      <c r="C178" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>296</v>
-      </c>
-      <c r="B179" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C179" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="B179" t="s">
+        <v>162</v>
+      </c>
+      <c r="C179" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>297</v>
-      </c>
-      <c r="B180" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C180" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="B180" t="s">
+        <v>162</v>
+      </c>
+      <c r="C180" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>298</v>
-      </c>
-      <c r="B181" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C181" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="B181" t="s">
+        <v>162</v>
+      </c>
+      <c r="C181" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>299</v>
-      </c>
-      <c r="B182" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C182" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="B182" t="s">
+        <v>162</v>
+      </c>
+      <c r="C182" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>300</v>
-      </c>
-      <c r="B183" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C183" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="B183" t="s">
+        <v>162</v>
+      </c>
+      <c r="C183" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>301</v>
-      </c>
-      <c r="B184" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C184" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="B184" t="s">
+        <v>162</v>
+      </c>
+      <c r="C184" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>302</v>
-      </c>
-      <c r="B185" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C185" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="B185" t="s">
+        <v>162</v>
+      </c>
+      <c r="C185" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>303</v>
-      </c>
-      <c r="B186" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C186" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="B186" t="s">
+        <v>162</v>
+      </c>
+      <c r="C186" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>304</v>
-      </c>
-      <c r="B187" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C187" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="B187" t="s">
+        <v>162</v>
+      </c>
+      <c r="C187" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>305</v>
-      </c>
-      <c r="B188" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C188" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="B188" t="s">
+        <v>162</v>
+      </c>
+      <c r="C188" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>306</v>
-      </c>
-      <c r="B189" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C189" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="B189" t="s">
+        <v>162</v>
+      </c>
+      <c r="C189" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>307</v>
-      </c>
-      <c r="B190" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C190" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="B190" t="s">
+        <v>162</v>
+      </c>
+      <c r="C190" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>308</v>
-      </c>
-      <c r="B191" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C191" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="B191" t="s">
+        <v>162</v>
+      </c>
+      <c r="C191" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>309</v>
-      </c>
-      <c r="B192" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C192" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="B192" t="s">
+        <v>162</v>
+      </c>
+      <c r="C192" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>310</v>
-      </c>
-      <c r="B193" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C193" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="B193" t="s">
+        <v>162</v>
+      </c>
+      <c r="C193" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>311</v>
-      </c>
-      <c r="B194" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C194" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="B194" t="s">
+        <v>162</v>
+      </c>
+      <c r="C194" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>312</v>
-      </c>
-      <c r="B195" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C195" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="B195" t="s">
+        <v>162</v>
+      </c>
+      <c r="C195" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>313</v>
-      </c>
-      <c r="B196" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C196" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="B196" t="s">
+        <v>162</v>
+      </c>
+      <c r="C196" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>314</v>
-      </c>
-      <c r="B197" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C197" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="B197" t="s">
+        <v>162</v>
+      </c>
+      <c r="C197" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>315</v>
-      </c>
-      <c r="B198" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C198" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="B198" t="s">
+        <v>162</v>
+      </c>
+      <c r="C198" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>316</v>
-      </c>
-      <c r="B199" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C199" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B199" t="s">
+        <v>162</v>
+      </c>
+      <c r="C199" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>317</v>
-      </c>
-      <c r="B200" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C200" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="B200" t="s">
+        <v>162</v>
+      </c>
+      <c r="C200" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>318</v>
-      </c>
-      <c r="B201" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C201" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="B201" t="s">
+        <v>162</v>
+      </c>
+      <c r="C201" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>319</v>
-      </c>
-      <c r="B202" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C202" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="B202" t="s">
+        <v>162</v>
+      </c>
+      <c r="C202" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>320</v>
-      </c>
-      <c r="B203" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C203" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="B203" t="s">
+        <v>162</v>
+      </c>
+      <c r="C203" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>321</v>
-      </c>
-      <c r="B204" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C204" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="B204" t="s">
+        <v>162</v>
+      </c>
+      <c r="C204" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>322</v>
-      </c>
-      <c r="B205" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C205" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="B205" t="s">
+        <v>162</v>
+      </c>
+      <c r="C205" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>323</v>
-      </c>
-      <c r="B206" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C206" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="B206" t="s">
+        <v>162</v>
+      </c>
+      <c r="C206" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>324</v>
-      </c>
-      <c r="B207" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C207" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="B207" t="s">
+        <v>162</v>
+      </c>
+      <c r="C207" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>325</v>
-      </c>
-      <c r="B208" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C208" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="B208" t="s">
+        <v>162</v>
+      </c>
+      <c r="C208" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>326</v>
-      </c>
-      <c r="B209" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C209" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="B209" t="s">
+        <v>162</v>
+      </c>
+      <c r="C209" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>327</v>
-      </c>
-      <c r="B210" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C210" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="B210" t="s">
+        <v>162</v>
+      </c>
+      <c r="C210" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>328</v>
-      </c>
-      <c r="B211" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C211" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="B211" t="s">
+        <v>162</v>
+      </c>
+      <c r="C211" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>329</v>
-      </c>
-      <c r="B212" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C212" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="B212" t="s">
+        <v>162</v>
+      </c>
+      <c r="C212" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>330</v>
-      </c>
-      <c r="B213" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C213" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="B213" t="s">
+        <v>162</v>
+      </c>
+      <c r="C213" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>331</v>
-      </c>
-      <c r="B214" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C214" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="B214" t="s">
+        <v>162</v>
+      </c>
+      <c r="C214" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>332</v>
-      </c>
-      <c r="B215" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C215" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="B215" t="s">
+        <v>162</v>
+      </c>
+      <c r="C215" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>333</v>
-      </c>
-      <c r="B216" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C216" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="B216" t="s">
+        <v>162</v>
+      </c>
+      <c r="C216" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>334</v>
-      </c>
-      <c r="B217" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C217" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="B217" t="s">
+        <v>162</v>
+      </c>
+      <c r="C217" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>335</v>
-      </c>
-      <c r="B218" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C218" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="B218" t="s">
+        <v>162</v>
+      </c>
+      <c r="C218" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>336</v>
-      </c>
-      <c r="B219" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C219" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="B219" t="s">
+        <v>162</v>
+      </c>
+      <c r="C219" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>337</v>
-      </c>
-      <c r="B220" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C220" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="B220" t="s">
+        <v>162</v>
+      </c>
+      <c r="C220" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>338</v>
-      </c>
-      <c r="B221" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C221" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="B221" t="s">
+        <v>162</v>
+      </c>
+      <c r="C221" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>339</v>
-      </c>
-      <c r="B222" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C222" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="B222" t="s">
+        <v>162</v>
+      </c>
+      <c r="C222" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>340</v>
-      </c>
-      <c r="B223" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C223" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="B223" t="s">
+        <v>162</v>
+      </c>
+      <c r="C223" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>341</v>
-      </c>
-      <c r="B224" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C224" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="B224" t="s">
+        <v>162</v>
+      </c>
+      <c r="C224" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>342</v>
-      </c>
-      <c r="B225" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C225" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="B225" t="s">
+        <v>162</v>
+      </c>
+      <c r="C225" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>343</v>
-      </c>
-      <c r="B226" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C226" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="B226" t="s">
+        <v>162</v>
+      </c>
+      <c r="C226" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>344</v>
-      </c>
-      <c r="B227" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C227" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="B227" t="s">
+        <v>162</v>
+      </c>
+      <c r="C227" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>345</v>
-      </c>
-      <c r="B228" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C228" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="B228" t="s">
+        <v>162</v>
+      </c>
+      <c r="C228" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>346</v>
-      </c>
-      <c r="B229" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C229" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="B229" t="s">
+        <v>162</v>
+      </c>
+      <c r="C229" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>347</v>
-      </c>
-      <c r="B230" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C230" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="B230" t="s">
+        <v>162</v>
+      </c>
+      <c r="C230" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>348</v>
-      </c>
-      <c r="B231" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C231" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="B231" t="s">
+        <v>162</v>
+      </c>
+      <c r="C231" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>349</v>
-      </c>
-      <c r="B232" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C232" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="B232" t="s">
+        <v>162</v>
+      </c>
+      <c r="C232" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>350</v>
-      </c>
-      <c r="B233" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C233" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="B233" t="s">
+        <v>162</v>
+      </c>
+      <c r="C233" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>351</v>
-      </c>
-      <c r="B234" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C234" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="B234" t="s">
+        <v>162</v>
+      </c>
+      <c r="C234" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>352</v>
-      </c>
-      <c r="B235" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C235" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="B235" t="s">
+        <v>162</v>
+      </c>
+      <c r="C235" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>353</v>
-      </c>
-      <c r="B236" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C236" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="B236" t="s">
+        <v>162</v>
+      </c>
+      <c r="C236" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>354</v>
-      </c>
-      <c r="B237" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C237" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="B237" t="s">
+        <v>162</v>
+      </c>
+      <c r="C237" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>355</v>
-      </c>
-      <c r="B238" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C238" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="B238" t="s">
+        <v>162</v>
+      </c>
+      <c r="C238" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>356</v>
-      </c>
-      <c r="B239" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C239" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="B239" t="s">
+        <v>162</v>
+      </c>
+      <c r="C239" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>357</v>
-      </c>
-      <c r="B240" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C240" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="B240" t="s">
+        <v>162</v>
+      </c>
+      <c r="C240" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>358</v>
-      </c>
-      <c r="B241" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C241" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="B241" t="s">
+        <v>162</v>
+      </c>
+      <c r="C241" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>359</v>
-      </c>
-      <c r="B242" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C242" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="B242" t="s">
+        <v>162</v>
+      </c>
+      <c r="C242" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>360</v>
-      </c>
-      <c r="B243" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C243" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="B243" t="s">
+        <v>162</v>
+      </c>
+      <c r="C243" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>361</v>
-      </c>
-      <c r="B244" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C244" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="B244" t="s">
+        <v>162</v>
+      </c>
+      <c r="C244" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>362</v>
-      </c>
-      <c r="B245" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C245" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="B245" t="s">
+        <v>162</v>
+      </c>
+      <c r="C245" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>363</v>
-      </c>
-      <c r="B246" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C246" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="B246" t="s">
+        <v>162</v>
+      </c>
+      <c r="C246" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>364</v>
-      </c>
-      <c r="B247" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C247" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="B247" t="s">
+        <v>162</v>
+      </c>
+      <c r="C247" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>365</v>
-      </c>
-      <c r="B248" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C248" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="B248" t="s">
+        <v>162</v>
+      </c>
+      <c r="C248" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>366</v>
-      </c>
-      <c r="B249" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C249" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="B249" t="s">
+        <v>162</v>
+      </c>
+      <c r="C249" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>367</v>
-      </c>
-      <c r="B250" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C250" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="B250" t="s">
+        <v>162</v>
+      </c>
+      <c r="C250" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>368</v>
-      </c>
-      <c r="B251" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C251" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="B251" t="s">
+        <v>162</v>
+      </c>
+      <c r="C251" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>369</v>
-      </c>
-      <c r="B252" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C252" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="B252" t="s">
+        <v>162</v>
+      </c>
+      <c r="C252" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>370</v>
-      </c>
-      <c r="B253" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C253" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B253" t="s">
+        <v>162</v>
+      </c>
+      <c r="C253" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>371</v>
-      </c>
-      <c r="B254" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C254" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="B254" t="s">
+        <v>162</v>
+      </c>
+      <c r="C254" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>372</v>
-      </c>
-      <c r="B255" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C255" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="B255" t="s">
+        <v>162</v>
+      </c>
+      <c r="C255" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>373</v>
-      </c>
-      <c r="B256" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C256" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="B256" t="s">
+        <v>162</v>
+      </c>
+      <c r="C256" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>374</v>
-      </c>
-      <c r="B257" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C257" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="B257" t="s">
+        <v>162</v>
+      </c>
+      <c r="C257" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>375</v>
-      </c>
-      <c r="B258" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C258" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="B258" t="s">
+        <v>162</v>
+      </c>
+      <c r="C258" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>376</v>
-      </c>
-      <c r="B259" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C259" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="B259" t="s">
+        <v>162</v>
+      </c>
+      <c r="C259" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>377</v>
-      </c>
-      <c r="B260" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C260" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="B260" t="s">
+        <v>162</v>
+      </c>
+      <c r="C260" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>378</v>
-      </c>
-      <c r="B261" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C261" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="B261" t="s">
+        <v>162</v>
+      </c>
+      <c r="C261" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>379</v>
-      </c>
-      <c r="B262" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C262" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="B262" t="s">
+        <v>162</v>
+      </c>
+      <c r="C262" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>380</v>
-      </c>
-      <c r="B263" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C263" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="B263" t="s">
+        <v>162</v>
+      </c>
+      <c r="C263" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>381</v>
-      </c>
-      <c r="B264" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C264" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="B264" t="s">
+        <v>162</v>
+      </c>
+      <c r="C264" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>382</v>
-      </c>
-      <c r="B265" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C265" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="B265" t="s">
+        <v>162</v>
+      </c>
+      <c r="C265" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>383</v>
-      </c>
-      <c r="B266" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C266" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="B266" t="s">
+        <v>162</v>
+      </c>
+      <c r="C266" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>384</v>
-      </c>
-      <c r="B267" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C267" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="B267" t="s">
+        <v>162</v>
+      </c>
+      <c r="C267" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>385</v>
-      </c>
-      <c r="B268" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C268" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="B268" t="s">
+        <v>162</v>
+      </c>
+      <c r="C268" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>386</v>
-      </c>
-      <c r="B269" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C269" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="B269" t="s">
+        <v>162</v>
+      </c>
+      <c r="C269" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>387</v>
-      </c>
-      <c r="B270" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C270" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="B270" t="s">
+        <v>162</v>
+      </c>
+      <c r="C270" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>388</v>
-      </c>
-      <c r="B271" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C271" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="B271" t="s">
+        <v>162</v>
+      </c>
+      <c r="C271" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>389</v>
-      </c>
-      <c r="B272" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C272" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="B272" t="s">
+        <v>162</v>
+      </c>
+      <c r="C272" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>390</v>
-      </c>
-      <c r="B273" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C273" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="B273" t="s">
+        <v>162</v>
+      </c>
+      <c r="C273" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>391</v>
-      </c>
-      <c r="B274" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C274" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="B274" t="s">
+        <v>162</v>
+      </c>
+      <c r="C274" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>392</v>
-      </c>
-      <c r="B275" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C275" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="B275" t="s">
+        <v>162</v>
+      </c>
+      <c r="C275" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>393</v>
-      </c>
-      <c r="B276" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C276" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="B276" t="s">
+        <v>162</v>
+      </c>
+      <c r="C276" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>394</v>
-      </c>
-      <c r="B277" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C277" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="B277" t="s">
+        <v>162</v>
+      </c>
+      <c r="C277" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>395</v>
-      </c>
-      <c r="B278" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C278" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="B278" t="s">
+        <v>162</v>
+      </c>
+      <c r="C278" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>396</v>
-      </c>
-      <c r="B279" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C279" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="B279" t="s">
+        <v>162</v>
+      </c>
+      <c r="C279" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>397</v>
-      </c>
-      <c r="B280" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C280" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="B280" t="s">
+        <v>162</v>
+      </c>
+      <c r="C280" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>398</v>
-      </c>
-      <c r="B281" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C281" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="B281" t="s">
+        <v>162</v>
+      </c>
+      <c r="C281" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>399</v>
-      </c>
-      <c r="B282" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C282" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="B282" t="s">
+        <v>162</v>
+      </c>
+      <c r="C282" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>400</v>
-      </c>
-      <c r="B283" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C283" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="B283" t="s">
+        <v>162</v>
+      </c>
+      <c r="C283" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>401</v>
-      </c>
-      <c r="B284" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C284" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="B284" t="s">
+        <v>162</v>
+      </c>
+      <c r="C284" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>402</v>
-      </c>
-      <c r="B285" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C285" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="B285" t="s">
+        <v>162</v>
+      </c>
+      <c r="C285" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>403</v>
-      </c>
-      <c r="B286" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C286" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="B286" t="s">
+        <v>162</v>
+      </c>
+      <c r="C286" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>404</v>
-      </c>
-      <c r="B287" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C287" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="B287" t="s">
+        <v>162</v>
+      </c>
+      <c r="C287" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>405</v>
-      </c>
-      <c r="B288" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C288" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="B288" t="s">
+        <v>162</v>
+      </c>
+      <c r="C288" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>406</v>
-      </c>
-      <c r="B289" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C289" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="B289" t="s">
+        <v>162</v>
+      </c>
+      <c r="C289" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>407</v>
-      </c>
-      <c r="B290" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C290" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="B290" t="s">
+        <v>162</v>
+      </c>
+      <c r="C290" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>408</v>
-      </c>
-      <c r="B291" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C291" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="B291" t="s">
+        <v>162</v>
+      </c>
+      <c r="C291" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>409</v>
-      </c>
-      <c r="B292" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C292" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="B292" t="s">
+        <v>162</v>
+      </c>
+      <c r="C292" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>410</v>
-      </c>
-      <c r="B293" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C293" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="B293" t="s">
+        <v>162</v>
+      </c>
+      <c r="C293" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>411</v>
-      </c>
-      <c r="B294" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C294" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="B294" t="s">
+        <v>162</v>
+      </c>
+      <c r="C294" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>412</v>
-      </c>
-      <c r="B295" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C295" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="B295" t="s">
+        <v>162</v>
+      </c>
+      <c r="C295" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>413</v>
-      </c>
-      <c r="B296" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C296" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="B296" t="s">
+        <v>162</v>
+      </c>
+      <c r="C296" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>414</v>
-      </c>
-      <c r="B297" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C297" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="B297" t="s">
+        <v>162</v>
+      </c>
+      <c r="C297" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>415</v>
-      </c>
-      <c r="B298" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C298" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="B298" t="s">
+        <v>162</v>
+      </c>
+      <c r="C298" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>416</v>
-      </c>
-      <c r="B299" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C299" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B299" t="s">
+        <v>162</v>
+      </c>
+      <c r="C299" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>417</v>
-      </c>
-      <c r="B300" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C300" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="B300" t="s">
+        <v>162</v>
+      </c>
+      <c r="C300" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>418</v>
-      </c>
-      <c r="B301" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C301" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="B301" t="s">
+        <v>162</v>
+      </c>
+      <c r="C301" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>419</v>
-      </c>
-      <c r="B302" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C302" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="B302" t="s">
+        <v>162</v>
+      </c>
+      <c r="C302" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>420</v>
-      </c>
-      <c r="B303" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C303" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="B303" t="s">
+        <v>162</v>
+      </c>
+      <c r="C303" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>421</v>
-      </c>
-      <c r="B304" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C304" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="B304" t="s">
+        <v>162</v>
+      </c>
+      <c r="C304" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>422</v>
-      </c>
-      <c r="B305" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C305" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="B305" t="s">
+        <v>162</v>
+      </c>
+      <c r="C305" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>423</v>
-      </c>
-      <c r="B306" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C306" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="B306" t="s">
+        <v>162</v>
+      </c>
+      <c r="C306" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>424</v>
-      </c>
-      <c r="B307" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C307" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="B307" t="s">
+        <v>162</v>
+      </c>
+      <c r="C307" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>425</v>
-      </c>
-      <c r="B308" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C308" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="B308" t="s">
+        <v>162</v>
+      </c>
+      <c r="C308" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>426</v>
-      </c>
-      <c r="B309" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C309" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="B309" t="s">
+        <v>162</v>
+      </c>
+      <c r="C309" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>427</v>
-      </c>
-      <c r="B310" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C310" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="B310" t="s">
+        <v>162</v>
+      </c>
+      <c r="C310" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>428</v>
-      </c>
-      <c r="B311" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C311" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="B311" t="s">
+        <v>162</v>
+      </c>
+      <c r="C311" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>429</v>
-      </c>
-      <c r="B312" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C312" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="B312" t="s">
+        <v>162</v>
+      </c>
+      <c r="C312" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>430</v>
-      </c>
-      <c r="B313" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C313" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="B313" t="s">
+        <v>162</v>
+      </c>
+      <c r="C313" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>431</v>
-      </c>
-      <c r="B314" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C314" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="B314" t="s">
+        <v>162</v>
+      </c>
+      <c r="C314" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>432</v>
-      </c>
-      <c r="B315" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C315" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="B315" t="s">
+        <v>162</v>
+      </c>
+      <c r="C315" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>433</v>
-      </c>
-      <c r="B316" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C316" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="B316" t="s">
+        <v>162</v>
+      </c>
+      <c r="C316" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>434</v>
-      </c>
-      <c r="B317" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C317" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="B317" t="s">
+        <v>162</v>
+      </c>
+      <c r="C317" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>435</v>
-      </c>
-      <c r="B318" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C318" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="B318" t="s">
+        <v>162</v>
+      </c>
+      <c r="C318" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>436</v>
-      </c>
-      <c r="B319" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C319" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="B319" t="s">
+        <v>162</v>
+      </c>
+      <c r="C319" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>437</v>
-      </c>
-      <c r="B320" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C320" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="B320" t="s">
+        <v>162</v>
+      </c>
+      <c r="C320" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>438</v>
-      </c>
-      <c r="B321" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C321" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="B321" t="s">
+        <v>162</v>
+      </c>
+      <c r="C321" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>439</v>
-      </c>
-      <c r="B322" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C322" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="B322" t="s">
+        <v>162</v>
+      </c>
+      <c r="C322" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>440</v>
-      </c>
-      <c r="B323" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C323" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="B323" t="s">
+        <v>162</v>
+      </c>
+      <c r="C323" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>441</v>
-      </c>
-      <c r="B324" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C324" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="B324" t="s">
+        <v>162</v>
+      </c>
+      <c r="C324" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>442</v>
-      </c>
-      <c r="B325" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C325" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="B325" t="s">
+        <v>162</v>
+      </c>
+      <c r="C325" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>443</v>
-      </c>
-      <c r="B326" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C326" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="B326" t="s">
+        <v>162</v>
+      </c>
+      <c r="C326" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>444</v>
-      </c>
-      <c r="B327" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C327" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="B327" t="s">
+        <v>162</v>
+      </c>
+      <c r="C327" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>445</v>
-      </c>
-      <c r="B328" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C328" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="B328" t="s">
+        <v>162</v>
+      </c>
+      <c r="C328" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>446</v>
-      </c>
-      <c r="B329" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C329" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="B329" t="s">
+        <v>162</v>
+      </c>
+      <c r="C329" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>447</v>
-      </c>
-      <c r="B330" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C330" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="B330" t="s">
+        <v>162</v>
+      </c>
+      <c r="C330" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>448</v>
-      </c>
-      <c r="B331" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C331" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="B331" t="s">
+        <v>162</v>
+      </c>
+      <c r="C331" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>449</v>
-      </c>
-      <c r="B332" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C332" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="B332" t="s">
+        <v>162</v>
+      </c>
+      <c r="C332" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>450</v>
-      </c>
-      <c r="B333" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C333" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="B333" t="s">
+        <v>162</v>
+      </c>
+      <c r="C333" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>451</v>
-      </c>
-      <c r="B334" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C334" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="B334" t="s">
+        <v>162</v>
+      </c>
+      <c r="C334" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>452</v>
-      </c>
-      <c r="B335" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C335" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="B335" t="s">
+        <v>162</v>
+      </c>
+      <c r="C335" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>453</v>
-      </c>
-      <c r="B336" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C336" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="B336" t="s">
+        <v>162</v>
+      </c>
+      <c r="C336" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>454</v>
-      </c>
-      <c r="B337" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C337" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="B337" t="s">
+        <v>162</v>
+      </c>
+      <c r="C337" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>455</v>
-      </c>
-      <c r="B338" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C338" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="B338" t="s">
+        <v>162</v>
+      </c>
+      <c r="C338" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>456</v>
-      </c>
-      <c r="B339" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C339" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="B339" t="s">
+        <v>162</v>
+      </c>
+      <c r="C339" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>457</v>
-      </c>
-      <c r="B340" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C340" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="B340" t="s">
+        <v>162</v>
+      </c>
+      <c r="C340" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>458</v>
-      </c>
-      <c r="B341" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C341" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="B341" t="s">
+        <v>162</v>
+      </c>
+      <c r="C341" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>459</v>
-      </c>
-      <c r="B342" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C342" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="B342" t="s">
+        <v>162</v>
+      </c>
+      <c r="C342" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>460</v>
-      </c>
-      <c r="B343" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C343" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="B343" t="s">
+        <v>162</v>
+      </c>
+      <c r="C343" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>461</v>
-      </c>
-      <c r="B344" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C344" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="B344" t="s">
+        <v>162</v>
+      </c>
+      <c r="C344" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>462</v>
-      </c>
-      <c r="B345" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C345" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="B345" t="s">
+        <v>162</v>
+      </c>
+      <c r="C345" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>463</v>
-      </c>
-      <c r="B346" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C346" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="B346" t="s">
+        <v>162</v>
+      </c>
+      <c r="C346" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>464</v>
-      </c>
-      <c r="B347" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C347" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="B347" t="s">
+        <v>162</v>
+      </c>
+      <c r="C347" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>465</v>
-      </c>
-      <c r="B348" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C348" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="B348" t="s">
+        <v>162</v>
+      </c>
+      <c r="C348" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>466</v>
-      </c>
-      <c r="B349" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C349" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="B349" t="s">
+        <v>162</v>
+      </c>
+      <c r="C349" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>467</v>
-      </c>
-      <c r="B350" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C350" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="B350" t="s">
+        <v>162</v>
+      </c>
+      <c r="C350" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>468</v>
-      </c>
-      <c r="B351" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C351" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="B351" t="s">
+        <v>162</v>
+      </c>
+      <c r="C351" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>469</v>
-      </c>
-      <c r="B352" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C352" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="B352" t="s">
+        <v>162</v>
+      </c>
+      <c r="C352" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>470</v>
-      </c>
-      <c r="B353" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C353" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="B353" t="s">
+        <v>162</v>
+      </c>
+      <c r="C353" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>471</v>
-      </c>
-      <c r="B354" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C354" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="B354" t="s">
+        <v>162</v>
+      </c>
+      <c r="C354" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>472</v>
-      </c>
-      <c r="B355" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C355" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="B355" t="s">
+        <v>162</v>
+      </c>
+      <c r="C355" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>473</v>
-      </c>
-      <c r="B356" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C356" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="B356" t="s">
+        <v>162</v>
+      </c>
+      <c r="C356" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>474</v>
-      </c>
-      <c r="B357" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C357" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="B357" t="s">
+        <v>162</v>
+      </c>
+      <c r="C357" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>475</v>
-      </c>
-      <c r="B358" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C358" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="B358" t="s">
+        <v>162</v>
+      </c>
+      <c r="C358" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>476</v>
-      </c>
-      <c r="B359" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C359" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="B359" t="s">
+        <v>162</v>
+      </c>
+      <c r="C359" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>477</v>
-      </c>
-      <c r="B360" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C360" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="B360" t="s">
+        <v>162</v>
+      </c>
+      <c r="C360" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>478</v>
-      </c>
-      <c r="B361" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C361" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="B361" t="s">
+        <v>162</v>
+      </c>
+      <c r="C361" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>479</v>
-      </c>
-      <c r="B362" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C362" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="B362" t="s">
+        <v>162</v>
+      </c>
+      <c r="C362" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>480</v>
-      </c>
-      <c r="B363" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C363" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="B363" t="s">
+        <v>162</v>
+      </c>
+      <c r="C363" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>481</v>
-      </c>
-      <c r="B364" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C364" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="B364" t="s">
+        <v>162</v>
+      </c>
+      <c r="C364" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>482</v>
-      </c>
-      <c r="B365" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C365" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="B365" t="s">
+        <v>162</v>
+      </c>
+      <c r="C365" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>483</v>
-      </c>
-      <c r="B366" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C366" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="B366" t="s">
+        <v>162</v>
+      </c>
+      <c r="C366" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>484</v>
-      </c>
-      <c r="B367" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C367" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="B367" t="s">
+        <v>162</v>
+      </c>
+      <c r="C367" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>485</v>
-      </c>
-      <c r="B368" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C368" s="29" t="s">
+        <v>484</v>
+      </c>
+      <c r="B368" t="s">
+        <v>162</v>
+      </c>
+      <c r="C368" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>486</v>
-      </c>
-      <c r="B369" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C369" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="B369" t="s">
+        <v>162</v>
+      </c>
+      <c r="C369" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>487</v>
-      </c>
-      <c r="B370" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C370" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="B370" t="s">
+        <v>162</v>
+      </c>
+      <c r="C370" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>488</v>
-      </c>
-      <c r="B371" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C371" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B371" t="s">
+        <v>162</v>
+      </c>
+      <c r="C371" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>489</v>
-      </c>
-      <c r="B372" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C372" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="B372" t="s">
+        <v>162</v>
+      </c>
+      <c r="C372" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>490</v>
-      </c>
-      <c r="B373" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C373" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="B373" t="s">
+        <v>162</v>
+      </c>
+      <c r="C373" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>491</v>
-      </c>
-      <c r="B374" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C374" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="B374" t="s">
+        <v>162</v>
+      </c>
+      <c r="C374" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>492</v>
-      </c>
-      <c r="B375" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C375" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="B375" t="s">
+        <v>162</v>
+      </c>
+      <c r="C375" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>493</v>
-      </c>
-      <c r="B376" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C376" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="B376" t="s">
+        <v>162</v>
+      </c>
+      <c r="C376" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>494</v>
-      </c>
-      <c r="B377" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C377" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="B377" t="s">
+        <v>162</v>
+      </c>
+      <c r="C377" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>495</v>
-      </c>
-      <c r="B378" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C378" s="29" t="s">
+        <v>494</v>
+      </c>
+      <c r="B378" t="s">
+        <v>162</v>
+      </c>
+      <c r="C378" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>496</v>
-      </c>
-      <c r="B379" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C379" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="B379" t="s">
+        <v>162</v>
+      </c>
+      <c r="C379" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>497</v>
-      </c>
-      <c r="B380" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C380" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="B380" t="s">
+        <v>162</v>
+      </c>
+      <c r="C380" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>498</v>
-      </c>
-      <c r="B381" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C381" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="B381" t="s">
+        <v>162</v>
+      </c>
+      <c r="C381" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>499</v>
-      </c>
-      <c r="B382" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C382" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="B382" t="s">
+        <v>162</v>
+      </c>
+      <c r="C382" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>500</v>
-      </c>
-      <c r="B383" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C383" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="B383" t="s">
+        <v>162</v>
+      </c>
+      <c r="C383" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>501</v>
-      </c>
-      <c r="B384" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C384" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="B384" t="s">
+        <v>162</v>
+      </c>
+      <c r="C384" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>502</v>
-      </c>
-      <c r="B385" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C385" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="B385" t="s">
+        <v>162</v>
+      </c>
+      <c r="C385" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>503</v>
-      </c>
-      <c r="B386" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C386" s="29" t="s">
+        <v>502</v>
+      </c>
+      <c r="B386" t="s">
+        <v>162</v>
+      </c>
+      <c r="C386" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>504</v>
-      </c>
-      <c r="B387" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C387" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="B387" t="s">
+        <v>162</v>
+      </c>
+      <c r="C387" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>505</v>
-      </c>
-      <c r="B388" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C388" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="B388" t="s">
+        <v>162</v>
+      </c>
+      <c r="C388" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>506</v>
-      </c>
-      <c r="B389" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C389" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="B389" t="s">
+        <v>162</v>
+      </c>
+      <c r="C389" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>507</v>
-      </c>
-      <c r="B390" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C390" s="29" t="s">
+        <v>506</v>
+      </c>
+      <c r="B390" t="s">
+        <v>162</v>
+      </c>
+      <c r="C390" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>508</v>
-      </c>
-      <c r="B391" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C391" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="B391" t="s">
+        <v>162</v>
+      </c>
+      <c r="C391" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>509</v>
-      </c>
-      <c r="B392" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C392" s="29" t="s">
+        <v>508</v>
+      </c>
+      <c r="B392" t="s">
+        <v>162</v>
+      </c>
+      <c r="C392" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>510</v>
-      </c>
-      <c r="B393" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C393" s="29" t="s">
+        <v>509</v>
+      </c>
+      <c r="B393" t="s">
+        <v>162</v>
+      </c>
+      <c r="C393" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>511</v>
-      </c>
-      <c r="B394" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C394" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="B394" t="s">
+        <v>162</v>
+      </c>
+      <c r="C394" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>512</v>
-      </c>
-      <c r="B395" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C395" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="B395" t="s">
+        <v>162</v>
+      </c>
+      <c r="C395" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>513</v>
-      </c>
-      <c r="B396" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C396" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="B396" t="s">
+        <v>162</v>
+      </c>
+      <c r="C396" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>514</v>
-      </c>
-      <c r="B397" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C397" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="B397" t="s">
+        <v>162</v>
+      </c>
+      <c r="C397" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>515</v>
-      </c>
-      <c r="B398" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C398" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="B398" t="s">
+        <v>162</v>
+      </c>
+      <c r="C398" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>516</v>
-      </c>
-      <c r="B399" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C399" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="B399" t="s">
+        <v>162</v>
+      </c>
+      <c r="C399" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>517</v>
-      </c>
-      <c r="B400" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C400" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="B400" t="s">
+        <v>162</v>
+      </c>
+      <c r="C400" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>518</v>
-      </c>
-      <c r="B401" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C401" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="B401" t="s">
+        <v>162</v>
+      </c>
+      <c r="C401" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>519</v>
-      </c>
-      <c r="B402" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C402" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="B402" t="s">
+        <v>162</v>
+      </c>
+      <c r="C402" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>520</v>
-      </c>
-      <c r="B403" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C403" s="29" t="s">
+        <v>519</v>
+      </c>
+      <c r="B403" t="s">
+        <v>162</v>
+      </c>
+      <c r="C403" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>521</v>
-      </c>
-      <c r="B404" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C404" s="29" t="s">
+        <v>520</v>
+      </c>
+      <c r="B404" t="s">
+        <v>162</v>
+      </c>
+      <c r="C404" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>522</v>
-      </c>
-      <c r="B405" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C405" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="B405" t="s">
+        <v>162</v>
+      </c>
+      <c r="C405" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>523</v>
-      </c>
-      <c r="B406" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C406" s="29" t="s">
+        <v>522</v>
+      </c>
+      <c r="B406" t="s">
+        <v>162</v>
+      </c>
+      <c r="C406" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>524</v>
-      </c>
-      <c r="B407" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C407" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="B407" t="s">
+        <v>162</v>
+      </c>
+      <c r="C407" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>525</v>
-      </c>
-      <c r="B408" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C408" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="B408" t="s">
+        <v>162</v>
+      </c>
+      <c r="C408" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>526</v>
-      </c>
-      <c r="B409" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C409" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="B409" t="s">
+        <v>162</v>
+      </c>
+      <c r="C409" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>527</v>
-      </c>
-      <c r="B410" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C410" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="B410" t="s">
+        <v>162</v>
+      </c>
+      <c r="C410" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>528</v>
-      </c>
-      <c r="B411" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C411" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="B411" t="s">
+        <v>162</v>
+      </c>
+      <c r="C411" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
+        <v>528</v>
+      </c>
+      <c r="B412" t="s">
+        <v>162</v>
+      </c>
+      <c r="C412" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
         <v>529</v>
       </c>
-      <c r="B412" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C412" s="29" t="s">
+      <c r="B413" t="s">
+        <v>162</v>
+      </c>
+      <c r="C413" t="s">
         <v>530</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77258323-AD72-476F-AD4B-7DB62B4DEA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7AC04D-8E76-4184-B2F3-CECA41ADE04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,11 @@
     <sheet name="SP" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="542">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1768,6 +1759,34 @@
   </si>
   <si>
     <t>(日終批次)維護 DailyLoanBal每日暫收款餘額檔</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usp_L6_CdEmp_Ins</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日終批次)更新員工檔</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usp_L6_CdBcm_Ins</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日終批次)更新組織檔</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usp_L6_QuitEmp_Ins</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>String InputEmpNo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日終批次)更新離職員工檔</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2415,7 +2434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2793,10 +2812,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G413"/>
+  <dimension ref="A1:G416"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2830,13 +2849,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
@@ -2844,13 +2863,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>535</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>536</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
@@ -2858,13 +2877,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>537</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>538</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>
@@ -2872,13 +2891,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>539</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>540</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>541</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
@@ -2886,13 +2905,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>533</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>534</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -2900,13 +2919,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>51</v>
@@ -2914,13 +2933,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>51</v>
@@ -2928,69 +2947,69 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>531</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>532</v>
-      </c>
-      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>533</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
+        <v>534</v>
+      </c>
+      <c r="D10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>531</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>532</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
@@ -2998,13 +3017,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
         <v>51</v>
@@ -3012,13 +3031,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
@@ -3026,69 +3045,69 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>160</v>
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
         <v>51</v>
@@ -3096,13 +3115,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
@@ -3110,13 +3129,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
         <v>51</v>
@@ -3124,27 +3143,27 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
+        <v>108</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>160</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F24" t="s">
         <v>51</v>
@@ -3152,13 +3171,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s">
         <v>51</v>
@@ -3166,13 +3185,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F26" t="s">
         <v>51</v>
@@ -3180,13 +3199,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
         <v>51</v>
@@ -3194,13 +3213,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
         <v>51</v>
@@ -3208,13 +3227,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
         <v>51</v>
@@ -3222,13 +3241,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s">
         <v>51</v>
@@ -3236,353 +3255,365 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F31" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
-        <v>155</v>
+      <c r="A32" t="s">
+        <v>102</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="F32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="F33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="F34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="F35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>82</v>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
+        <v>155</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="F36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
         <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="F39" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="F40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="F41" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F43" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B44" t="s">
         <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F44" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B45" t="s">
         <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F45" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B46" t="s">
         <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s">
         <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F47" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
-      </c>
-      <c r="G48" t="s">
-        <v>124</v>
+        <v>140</v>
+      </c>
+      <c r="F48" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
-      </c>
-      <c r="G49" t="s">
-        <v>124</v>
+        <v>141</v>
+      </c>
+      <c r="F49" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
-      </c>
-      <c r="G50" t="s">
-        <v>124</v>
+        <v>142</v>
+      </c>
+      <c r="F50" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+      <c r="F51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>164</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>165</v>
+        <v>118</v>
+      </c>
+      <c r="B52" t="s">
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>166</v>
+        <v>119</v>
+      </c>
+      <c r="G52" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="B53" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s">
-        <v>169</v>
+        <v>121</v>
+      </c>
+      <c r="G53" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="G54" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>171</v>
-      </c>
-      <c r="B55" t="s">
-        <v>162</v>
+        <v>164</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>165</v>
       </c>
       <c r="C55" t="s">
-        <v>530</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C56" t="s">
-        <v>530</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B57" t="s">
         <v>162</v>
@@ -3593,7 +3624,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B58" t="s">
         <v>162</v>
@@ -3604,7 +3635,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B59" t="s">
         <v>162</v>
@@ -3615,7 +3646,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B60" t="s">
         <v>162</v>
@@ -3626,7 +3657,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B61" t="s">
         <v>162</v>
@@ -3637,7 +3668,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B62" t="s">
         <v>162</v>
@@ -3648,7 +3679,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B63" t="s">
         <v>162</v>
@@ -3659,7 +3690,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B64" t="s">
         <v>162</v>
@@ -3670,7 +3701,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B65" t="s">
         <v>162</v>
@@ -3681,7 +3712,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B66" t="s">
         <v>162</v>
@@ -3692,7 +3723,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B67" t="s">
         <v>162</v>
@@ -3703,7 +3734,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B68" t="s">
         <v>162</v>
@@ -3714,7 +3745,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B69" t="s">
         <v>162</v>
@@ -3725,7 +3756,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B70" t="s">
         <v>162</v>
@@ -3736,7 +3767,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B71" t="s">
         <v>162</v>
@@ -3747,7 +3778,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B72" t="s">
         <v>162</v>
@@ -3758,7 +3789,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B73" t="s">
         <v>162</v>
@@ -3769,7 +3800,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B74" t="s">
         <v>162</v>
@@ -3780,7 +3811,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B75" t="s">
         <v>162</v>
@@ -3791,7 +3822,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B76" t="s">
         <v>162</v>
@@ -3802,7 +3833,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B77" t="s">
         <v>162</v>
@@ -3813,7 +3844,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B78" t="s">
         <v>162</v>
@@ -3824,7 +3855,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B79" t="s">
         <v>162</v>
@@ -3835,7 +3866,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B80" t="s">
         <v>162</v>
@@ -3846,7 +3877,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B81" t="s">
         <v>162</v>
@@ -3857,7 +3888,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B82" t="s">
         <v>162</v>
@@ -3868,7 +3899,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B83" t="s">
         <v>162</v>
@@ -3879,7 +3910,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B84" t="s">
         <v>162</v>
@@ -3890,7 +3921,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B85" t="s">
         <v>162</v>
@@ -3901,7 +3932,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B86" t="s">
         <v>162</v>
@@ -3912,7 +3943,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B87" t="s">
         <v>162</v>
@@ -3923,7 +3954,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B88" t="s">
         <v>162</v>
@@ -3934,7 +3965,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B89" t="s">
         <v>162</v>
@@ -3945,7 +3976,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B90" t="s">
         <v>162</v>
@@ -3956,7 +3987,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B91" t="s">
         <v>162</v>
@@ -3967,7 +3998,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B92" t="s">
         <v>162</v>
@@ -3978,7 +4009,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B93" t="s">
         <v>162</v>
@@ -3989,7 +4020,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B94" t="s">
         <v>162</v>
@@ -4000,7 +4031,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B95" t="s">
         <v>162</v>
@@ -4011,7 +4042,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B96" t="s">
         <v>162</v>
@@ -4022,7 +4053,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B97" t="s">
         <v>162</v>
@@ -4033,7 +4064,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B98" t="s">
         <v>162</v>
@@ -4044,7 +4075,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B99" t="s">
         <v>162</v>
@@ -4055,7 +4086,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B100" t="s">
         <v>162</v>
@@ -4066,7 +4097,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B101" t="s">
         <v>162</v>
@@ -4077,7 +4108,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B102" t="s">
         <v>162</v>
@@ -4088,7 +4119,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B103" t="s">
         <v>162</v>
@@ -4099,7 +4130,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B104" t="s">
         <v>162</v>
@@ -4110,7 +4141,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B105" t="s">
         <v>162</v>
@@ -4121,7 +4152,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B106" t="s">
         <v>162</v>
@@ -4132,7 +4163,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B107" t="s">
         <v>162</v>
@@ -4143,7 +4174,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B108" t="s">
         <v>162</v>
@@ -4154,7 +4185,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B109" t="s">
         <v>162</v>
@@ -4165,7 +4196,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B110" t="s">
         <v>162</v>
@@ -4176,7 +4207,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B111" t="s">
         <v>162</v>
@@ -4187,7 +4218,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B112" t="s">
         <v>162</v>
@@ -4198,7 +4229,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B113" t="s">
         <v>162</v>
@@ -4209,7 +4240,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B114" t="s">
         <v>162</v>
@@ -4220,7 +4251,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B115" t="s">
         <v>162</v>
@@ -4231,7 +4262,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B116" t="s">
         <v>162</v>
@@ -4242,7 +4273,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B117" t="s">
         <v>162</v>
@@ -4253,7 +4284,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B118" t="s">
         <v>162</v>
@@ -4264,7 +4295,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B119" t="s">
         <v>162</v>
@@ -4275,7 +4306,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B120" t="s">
         <v>162</v>
@@ -4286,7 +4317,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B121" t="s">
         <v>162</v>
@@ -4297,7 +4328,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B122" t="s">
         <v>162</v>
@@ -4308,7 +4339,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B123" t="s">
         <v>162</v>
@@ -4319,7 +4350,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B124" t="s">
         <v>162</v>
@@ -4330,7 +4361,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B125" t="s">
         <v>162</v>
@@ -4341,7 +4372,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B126" t="s">
         <v>162</v>
@@ -4352,7 +4383,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B127" t="s">
         <v>162</v>
@@ -4363,7 +4394,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B128" t="s">
         <v>162</v>
@@ -4374,7 +4405,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B129" t="s">
         <v>162</v>
@@ -4385,7 +4416,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B130" t="s">
         <v>162</v>
@@ -4396,7 +4427,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B131" t="s">
         <v>162</v>
@@ -4407,7 +4438,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B132" t="s">
         <v>162</v>
@@ -4418,7 +4449,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B133" t="s">
         <v>162</v>
@@ -4429,7 +4460,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B134" t="s">
         <v>162</v>
@@ -4440,7 +4471,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B135" t="s">
         <v>162</v>
@@ -4451,7 +4482,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B136" t="s">
         <v>162</v>
@@ -4462,7 +4493,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B137" t="s">
         <v>162</v>
@@ -4473,7 +4504,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B138" t="s">
         <v>162</v>
@@ -4484,7 +4515,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B139" t="s">
         <v>162</v>
@@ -4495,7 +4526,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B140" t="s">
         <v>162</v>
@@ -4506,7 +4537,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B141" t="s">
         <v>162</v>
@@ -4517,7 +4548,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B142" t="s">
         <v>162</v>
@@ -4528,7 +4559,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B143" t="s">
         <v>162</v>
@@ -4539,7 +4570,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B144" t="s">
         <v>162</v>
@@ -4550,7 +4581,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B145" t="s">
         <v>162</v>
@@ -4561,7 +4592,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B146" t="s">
         <v>162</v>
@@ -4572,7 +4603,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B147" t="s">
         <v>162</v>
@@ -4583,7 +4614,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B148" t="s">
         <v>162</v>
@@ -4594,7 +4625,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B149" t="s">
         <v>162</v>
@@ -4605,7 +4636,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B150" t="s">
         <v>162</v>
@@ -4616,7 +4647,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B151" t="s">
         <v>162</v>
@@ -4627,7 +4658,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B152" t="s">
         <v>162</v>
@@ -4638,7 +4669,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B153" t="s">
         <v>162</v>
@@ -4649,7 +4680,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B154" t="s">
         <v>162</v>
@@ -4660,7 +4691,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B155" t="s">
         <v>162</v>
@@ -4671,7 +4702,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B156" t="s">
         <v>162</v>
@@ -4682,7 +4713,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B157" t="s">
         <v>162</v>
@@ -4693,7 +4724,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B158" t="s">
         <v>162</v>
@@ -4704,7 +4735,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B159" t="s">
         <v>162</v>
@@ -4715,7 +4746,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B160" t="s">
         <v>162</v>
@@ -4726,7 +4757,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -4737,7 +4768,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B162" t="s">
         <v>162</v>
@@ -4748,7 +4779,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B163" t="s">
         <v>162</v>
@@ -4759,7 +4790,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B164" t="s">
         <v>162</v>
@@ -4770,7 +4801,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B165" t="s">
         <v>162</v>
@@ -4781,7 +4812,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B166" t="s">
         <v>162</v>
@@ -4792,7 +4823,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B167" t="s">
         <v>162</v>
@@ -4803,7 +4834,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B168" t="s">
         <v>162</v>
@@ -4814,7 +4845,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B169" t="s">
         <v>162</v>
@@ -4825,7 +4856,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B170" t="s">
         <v>162</v>
@@ -4836,7 +4867,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B171" t="s">
         <v>162</v>
@@ -4847,7 +4878,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B172" t="s">
         <v>162</v>
@@ -4858,7 +4889,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B173" t="s">
         <v>162</v>
@@ -4869,7 +4900,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B174" t="s">
         <v>162</v>
@@ -4880,7 +4911,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B175" t="s">
         <v>162</v>
@@ -4891,7 +4922,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B176" t="s">
         <v>162</v>
@@ -4902,7 +4933,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B177" t="s">
         <v>162</v>
@@ -4913,7 +4944,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B178" t="s">
         <v>162</v>
@@ -4924,7 +4955,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B179" t="s">
         <v>162</v>
@@ -4935,7 +4966,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B180" t="s">
         <v>162</v>
@@ -4946,7 +4977,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B181" t="s">
         <v>162</v>
@@ -4957,7 +4988,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B182" t="s">
         <v>162</v>
@@ -4968,7 +4999,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B183" t="s">
         <v>162</v>
@@ -4979,7 +5010,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B184" t="s">
         <v>162</v>
@@ -4990,7 +5021,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B185" t="s">
         <v>162</v>
@@ -5001,7 +5032,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B186" t="s">
         <v>162</v>
@@ -5012,7 +5043,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B187" t="s">
         <v>162</v>
@@ -5023,7 +5054,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B188" t="s">
         <v>162</v>
@@ -5034,7 +5065,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B189" t="s">
         <v>162</v>
@@ -5045,7 +5076,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B190" t="s">
         <v>162</v>
@@ -5056,7 +5087,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B191" t="s">
         <v>162</v>
@@ -5067,7 +5098,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B192" t="s">
         <v>162</v>
@@ -5078,7 +5109,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B193" t="s">
         <v>162</v>
@@ -5089,7 +5120,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B194" t="s">
         <v>162</v>
@@ -5100,7 +5131,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B195" t="s">
         <v>162</v>
@@ -5111,7 +5142,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B196" t="s">
         <v>162</v>
@@ -5122,7 +5153,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B197" t="s">
         <v>162</v>
@@ -5133,7 +5164,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B198" t="s">
         <v>162</v>
@@ -5144,7 +5175,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B199" t="s">
         <v>162</v>
@@ -5155,7 +5186,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B200" t="s">
         <v>162</v>
@@ -5166,7 +5197,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B201" t="s">
         <v>162</v>
@@ -5177,7 +5208,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B202" t="s">
         <v>162</v>
@@ -5188,7 +5219,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B203" t="s">
         <v>162</v>
@@ -5199,7 +5230,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B204" t="s">
         <v>162</v>
@@ -5210,7 +5241,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B205" t="s">
         <v>162</v>
@@ -5221,7 +5252,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B206" t="s">
         <v>162</v>
@@ -5232,7 +5263,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B207" t="s">
         <v>162</v>
@@ -5243,7 +5274,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B208" t="s">
         <v>162</v>
@@ -5254,7 +5285,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B209" t="s">
         <v>162</v>
@@ -5265,7 +5296,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B210" t="s">
         <v>162</v>
@@ -5276,7 +5307,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B211" t="s">
         <v>162</v>
@@ -5287,7 +5318,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B212" t="s">
         <v>162</v>
@@ -5298,7 +5329,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B213" t="s">
         <v>162</v>
@@ -5309,7 +5340,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B214" t="s">
         <v>162</v>
@@ -5320,7 +5351,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B215" t="s">
         <v>162</v>
@@ -5331,7 +5362,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B216" t="s">
         <v>162</v>
@@ -5342,7 +5373,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B217" t="s">
         <v>162</v>
@@ -5353,7 +5384,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B218" t="s">
         <v>162</v>
@@ -5364,7 +5395,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B219" t="s">
         <v>162</v>
@@ -5375,7 +5406,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B220" t="s">
         <v>162</v>
@@ -5386,7 +5417,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B221" t="s">
         <v>162</v>
@@ -5397,7 +5428,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B222" t="s">
         <v>162</v>
@@ -5408,7 +5439,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B223" t="s">
         <v>162</v>
@@ -5419,7 +5450,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B224" t="s">
         <v>162</v>
@@ -5430,7 +5461,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B225" t="s">
         <v>162</v>
@@ -5441,7 +5472,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B226" t="s">
         <v>162</v>
@@ -5452,7 +5483,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B227" t="s">
         <v>162</v>
@@ -5463,7 +5494,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B228" t="s">
         <v>162</v>
@@ -5474,7 +5505,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B229" t="s">
         <v>162</v>
@@ -5485,7 +5516,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B230" t="s">
         <v>162</v>
@@ -5496,7 +5527,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B231" t="s">
         <v>162</v>
@@ -5507,7 +5538,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B232" t="s">
         <v>162</v>
@@ -5518,7 +5549,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B233" t="s">
         <v>162</v>
@@ -5529,7 +5560,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B234" t="s">
         <v>162</v>
@@ -5540,7 +5571,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B235" t="s">
         <v>162</v>
@@ -5551,7 +5582,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B236" t="s">
         <v>162</v>
@@ -5562,7 +5593,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B237" t="s">
         <v>162</v>
@@ -5573,7 +5604,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B238" t="s">
         <v>162</v>
@@ -5584,7 +5615,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B239" t="s">
         <v>162</v>
@@ -5595,7 +5626,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B240" t="s">
         <v>162</v>
@@ -5606,7 +5637,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B241" t="s">
         <v>162</v>
@@ -5617,7 +5648,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B242" t="s">
         <v>162</v>
@@ -5628,7 +5659,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B243" t="s">
         <v>162</v>
@@ -5639,7 +5670,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B244" t="s">
         <v>162</v>
@@ -5650,7 +5681,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B245" t="s">
         <v>162</v>
@@ -5661,7 +5692,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B246" t="s">
         <v>162</v>
@@ -5672,7 +5703,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B247" t="s">
         <v>162</v>
@@ -5683,7 +5714,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B248" t="s">
         <v>162</v>
@@ -5694,7 +5725,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B249" t="s">
         <v>162</v>
@@ -5705,7 +5736,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B250" t="s">
         <v>162</v>
@@ -5716,7 +5747,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B251" t="s">
         <v>162</v>
@@ -5727,7 +5758,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B252" t="s">
         <v>162</v>
@@ -5738,7 +5769,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B253" t="s">
         <v>162</v>
@@ -5749,7 +5780,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B254" t="s">
         <v>162</v>
@@ -5760,7 +5791,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B255" t="s">
         <v>162</v>
@@ -5771,7 +5802,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B256" t="s">
         <v>162</v>
@@ -5782,7 +5813,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B257" t="s">
         <v>162</v>
@@ -5793,7 +5824,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B258" t="s">
         <v>162</v>
@@ -5804,7 +5835,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B259" t="s">
         <v>162</v>
@@ -5815,7 +5846,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B260" t="s">
         <v>162</v>
@@ -5826,7 +5857,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B261" t="s">
         <v>162</v>
@@ -5837,7 +5868,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B262" t="s">
         <v>162</v>
@@ -5848,7 +5879,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B263" t="s">
         <v>162</v>
@@ -5859,7 +5890,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B264" t="s">
         <v>162</v>
@@ -5870,7 +5901,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B265" t="s">
         <v>162</v>
@@ -5881,7 +5912,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B266" t="s">
         <v>162</v>
@@ -5892,7 +5923,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B267" t="s">
         <v>162</v>
@@ -5903,7 +5934,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B268" t="s">
         <v>162</v>
@@ -5914,7 +5945,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B269" t="s">
         <v>162</v>
@@ -5925,7 +5956,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B270" t="s">
         <v>162</v>
@@ -5936,7 +5967,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B271" t="s">
         <v>162</v>
@@ -5947,7 +5978,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B272" t="s">
         <v>162</v>
@@ -5958,7 +5989,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B273" t="s">
         <v>162</v>
@@ -5969,7 +6000,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B274" t="s">
         <v>162</v>
@@ -5980,7 +6011,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B275" t="s">
         <v>162</v>
@@ -5991,7 +6022,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B276" t="s">
         <v>162</v>
@@ -6002,7 +6033,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B277" t="s">
         <v>162</v>
@@ -6013,7 +6044,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B278" t="s">
         <v>162</v>
@@ -6024,7 +6055,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B279" t="s">
         <v>162</v>
@@ -6035,7 +6066,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B280" t="s">
         <v>162</v>
@@ -6046,7 +6077,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B281" t="s">
         <v>162</v>
@@ -6057,7 +6088,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B282" t="s">
         <v>162</v>
@@ -6068,7 +6099,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B283" t="s">
         <v>162</v>
@@ -6079,7 +6110,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B284" t="s">
         <v>162</v>
@@ -6090,7 +6121,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B285" t="s">
         <v>162</v>
@@ -6101,7 +6132,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B286" t="s">
         <v>162</v>
@@ -6112,7 +6143,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B287" t="s">
         <v>162</v>
@@ -6123,7 +6154,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B288" t="s">
         <v>162</v>
@@ -6134,7 +6165,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B289" t="s">
         <v>162</v>
@@ -6145,7 +6176,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B290" t="s">
         <v>162</v>
@@ -6156,7 +6187,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B291" t="s">
         <v>162</v>
@@ -6167,7 +6198,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B292" t="s">
         <v>162</v>
@@ -6178,7 +6209,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B293" t="s">
         <v>162</v>
@@ -6189,7 +6220,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B294" t="s">
         <v>162</v>
@@ -6200,7 +6231,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B295" t="s">
         <v>162</v>
@@ -6211,7 +6242,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B296" t="s">
         <v>162</v>
@@ -6222,7 +6253,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B297" t="s">
         <v>162</v>
@@ -6233,7 +6264,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B298" t="s">
         <v>162</v>
@@ -6244,7 +6275,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B299" t="s">
         <v>162</v>
@@ -6255,7 +6286,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B300" t="s">
         <v>162</v>
@@ -6266,7 +6297,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B301" t="s">
         <v>162</v>
@@ -6277,7 +6308,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B302" t="s">
         <v>162</v>
@@ -6288,7 +6319,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B303" t="s">
         <v>162</v>
@@ -6299,7 +6330,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B304" t="s">
         <v>162</v>
@@ -6310,7 +6341,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B305" t="s">
         <v>162</v>
@@ -6321,7 +6352,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B306" t="s">
         <v>162</v>
@@ -6332,7 +6363,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B307" t="s">
         <v>162</v>
@@ -6343,7 +6374,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B308" t="s">
         <v>162</v>
@@ -6354,7 +6385,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B309" t="s">
         <v>162</v>
@@ -6365,7 +6396,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B310" t="s">
         <v>162</v>
@@ -6376,7 +6407,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B311" t="s">
         <v>162</v>
@@ -6387,7 +6418,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B312" t="s">
         <v>162</v>
@@ -6398,7 +6429,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B313" t="s">
         <v>162</v>
@@ -6409,7 +6440,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B314" t="s">
         <v>162</v>
@@ -6420,7 +6451,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B315" t="s">
         <v>162</v>
@@ -6431,7 +6462,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B316" t="s">
         <v>162</v>
@@ -6442,7 +6473,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B317" t="s">
         <v>162</v>
@@ -6453,7 +6484,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B318" t="s">
         <v>162</v>
@@ -6464,7 +6495,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B319" t="s">
         <v>162</v>
@@ -6475,7 +6506,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B320" t="s">
         <v>162</v>
@@ -6486,7 +6517,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B321" t="s">
         <v>162</v>
@@ -6497,7 +6528,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B322" t="s">
         <v>162</v>
@@ -6508,7 +6539,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B323" t="s">
         <v>162</v>
@@ -6519,7 +6550,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B324" t="s">
         <v>162</v>
@@ -6530,7 +6561,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B325" t="s">
         <v>162</v>
@@ -6541,7 +6572,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B326" t="s">
         <v>162</v>
@@ -6552,7 +6583,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B327" t="s">
         <v>162</v>
@@ -6563,7 +6594,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B328" t="s">
         <v>162</v>
@@ -6574,7 +6605,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B329" t="s">
         <v>162</v>
@@ -6585,7 +6616,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B330" t="s">
         <v>162</v>
@@ -6596,7 +6627,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B331" t="s">
         <v>162</v>
@@ -6607,7 +6638,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B332" t="s">
         <v>162</v>
@@ -6618,7 +6649,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B333" t="s">
         <v>162</v>
@@ -6629,7 +6660,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B334" t="s">
         <v>162</v>
@@ -6640,7 +6671,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B335" t="s">
         <v>162</v>
@@ -6651,7 +6682,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B336" t="s">
         <v>162</v>
@@ -6662,7 +6693,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B337" t="s">
         <v>162</v>
@@ -6673,7 +6704,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B338" t="s">
         <v>162</v>
@@ -6684,7 +6715,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B339" t="s">
         <v>162</v>
@@ -6695,7 +6726,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B340" t="s">
         <v>162</v>
@@ -6706,7 +6737,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B341" t="s">
         <v>162</v>
@@ -6717,7 +6748,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B342" t="s">
         <v>162</v>
@@ -6728,7 +6759,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B343" t="s">
         <v>162</v>
@@ -6739,7 +6770,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B344" t="s">
         <v>162</v>
@@ -6750,7 +6781,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B345" t="s">
         <v>162</v>
@@ -6761,7 +6792,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B346" t="s">
         <v>162</v>
@@ -6772,7 +6803,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B347" t="s">
         <v>162</v>
@@ -6783,7 +6814,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B348" t="s">
         <v>162</v>
@@ -6794,7 +6825,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B349" t="s">
         <v>162</v>
@@ -6805,7 +6836,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B350" t="s">
         <v>162</v>
@@ -6816,7 +6847,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B351" t="s">
         <v>162</v>
@@ -6827,7 +6858,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B352" t="s">
         <v>162</v>
@@ -6838,7 +6869,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B353" t="s">
         <v>162</v>
@@ -6849,7 +6880,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B354" t="s">
         <v>162</v>
@@ -6860,7 +6891,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B355" t="s">
         <v>162</v>
@@ -6871,7 +6902,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B356" t="s">
         <v>162</v>
@@ -6882,7 +6913,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B357" t="s">
         <v>162</v>
@@ -6893,7 +6924,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B358" t="s">
         <v>162</v>
@@ -6904,7 +6935,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B359" t="s">
         <v>162</v>
@@ -6915,7 +6946,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B360" t="s">
         <v>162</v>
@@ -6926,7 +6957,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B361" t="s">
         <v>162</v>
@@ -6937,7 +6968,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B362" t="s">
         <v>162</v>
@@ -6948,7 +6979,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B363" t="s">
         <v>162</v>
@@ -6959,7 +6990,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B364" t="s">
         <v>162</v>
@@ -6970,7 +7001,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B365" t="s">
         <v>162</v>
@@ -6981,7 +7012,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B366" t="s">
         <v>162</v>
@@ -6992,7 +7023,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B367" t="s">
         <v>162</v>
@@ -7003,7 +7034,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B368" t="s">
         <v>162</v>
@@ -7014,7 +7045,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B369" t="s">
         <v>162</v>
@@ -7025,7 +7056,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B370" t="s">
         <v>162</v>
@@ -7036,7 +7067,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B371" t="s">
         <v>162</v>
@@ -7047,7 +7078,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B372" t="s">
         <v>162</v>
@@ -7058,7 +7089,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B373" t="s">
         <v>162</v>
@@ -7069,7 +7100,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B374" t="s">
         <v>162</v>
@@ -7080,7 +7111,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B375" t="s">
         <v>162</v>
@@ -7091,7 +7122,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B376" t="s">
         <v>162</v>
@@ -7102,7 +7133,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B377" t="s">
         <v>162</v>
@@ -7113,7 +7144,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B378" t="s">
         <v>162</v>
@@ -7124,7 +7155,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B379" t="s">
         <v>162</v>
@@ -7135,7 +7166,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B380" t="s">
         <v>162</v>
@@ -7146,7 +7177,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B381" t="s">
         <v>162</v>
@@ -7157,7 +7188,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B382" t="s">
         <v>162</v>
@@ -7168,7 +7199,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B383" t="s">
         <v>162</v>
@@ -7179,7 +7210,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B384" t="s">
         <v>162</v>
@@ -7190,7 +7221,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B385" t="s">
         <v>162</v>
@@ -7201,7 +7232,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B386" t="s">
         <v>162</v>
@@ -7212,7 +7243,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B387" t="s">
         <v>162</v>
@@ -7223,7 +7254,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B388" t="s">
         <v>162</v>
@@ -7234,7 +7265,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B389" t="s">
         <v>162</v>
@@ -7245,7 +7276,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B390" t="s">
         <v>162</v>
@@ -7256,7 +7287,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B391" t="s">
         <v>162</v>
@@ -7267,7 +7298,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B392" t="s">
         <v>162</v>
@@ -7278,7 +7309,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B393" t="s">
         <v>162</v>
@@ -7289,7 +7320,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B394" t="s">
         <v>162</v>
@@ -7300,7 +7331,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B395" t="s">
         <v>162</v>
@@ -7311,7 +7342,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B396" t="s">
         <v>162</v>
@@ -7322,7 +7353,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B397" t="s">
         <v>162</v>
@@ -7333,7 +7364,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B398" t="s">
         <v>162</v>
@@ -7344,7 +7375,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B399" t="s">
         <v>162</v>
@@ -7355,7 +7386,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B400" t="s">
         <v>162</v>
@@ -7366,7 +7397,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B401" t="s">
         <v>162</v>
@@ -7377,7 +7408,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B402" t="s">
         <v>162</v>
@@ -7388,7 +7419,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B403" t="s">
         <v>162</v>
@@ -7399,7 +7430,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B404" t="s">
         <v>162</v>
@@ -7410,7 +7441,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B405" t="s">
         <v>162</v>
@@ -7421,7 +7452,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B406" t="s">
         <v>162</v>
@@ -7432,7 +7463,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B407" t="s">
         <v>162</v>
@@ -7443,7 +7474,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B408" t="s">
         <v>162</v>
@@ -7454,7 +7485,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B409" t="s">
         <v>162</v>
@@ -7465,7 +7496,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B410" t="s">
         <v>162</v>
@@ -7476,7 +7507,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B411" t="s">
         <v>162</v>
@@ -7487,7 +7518,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B412" t="s">
         <v>162</v>
@@ -7498,12 +7529,45 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
+        <v>526</v>
+      </c>
+      <c r="B413" t="s">
+        <v>162</v>
+      </c>
+      <c r="C413" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>527</v>
+      </c>
+      <c r="B414" t="s">
+        <v>162</v>
+      </c>
+      <c r="C414" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>528</v>
+      </c>
+      <c r="B415" t="s">
+        <v>162</v>
+      </c>
+      <c r="C415" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
         <v>529</v>
       </c>
-      <c r="B413" t="s">
-        <v>162</v>
-      </c>
-      <c r="C413" t="s">
+      <c r="B416" t="s">
+        <v>162</v>
+      </c>
+      <c r="C416" t="s">
         <v>530</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7AC04D-8E76-4184-B2F3-CECA41ADE04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DDC7C5-E10C-4CA3-A56E-B77F805F746B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="545">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1787,6 +1787,17 @@
   </si>
   <si>
     <t>(日終批次)更新離職員工檔</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usp_L9_DailyBackup_Copy</t>
+  </si>
+  <si>
+    <t>每日複製</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>int Tbsdyf,String EmpNo</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2812,10 +2823,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G416"/>
+  <dimension ref="A1:G417"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D5"/>
+    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="B417" sqref="B417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -7571,6 +7582,17 @@
         <v>530</v>
       </c>
     </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>542</v>
+      </c>
+      <c r="B417" t="s">
+        <v>544</v>
+      </c>
+      <c r="C417" t="s">
+        <v>543</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C76EFE0-C083-4E91-8EDE-C058D6087ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D8BB9E-95DA-4ECA-8868-CDDC23D8A231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="188">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -686,6 +686,14 @@
   </si>
   <si>
     <t>Usp_Cp_ForeignKeyControl_Upd</t>
+  </si>
+  <si>
+    <t>Usp_L6_CdStock_Ins</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日終批次)更新股票代號檔</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1676,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1769,27 +1777,24 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
         <v>42</v>
@@ -1797,13 +1802,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>42</v>
@@ -1811,13 +1816,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -1825,13 +1830,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
@@ -1839,13 +1844,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
         <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
         <v>42</v>
@@ -1853,13 +1858,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
         <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
         <v>42</v>
@@ -1867,27 +1872,27 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
         <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
         <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
         <v>42</v>
@@ -1895,13 +1900,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
         <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
         <v>42</v>
@@ -1909,13 +1914,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s">
         <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
         <v>42</v>
@@ -1923,13 +1928,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
         <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
         <v>42</v>
@@ -1937,13 +1942,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
         <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
         <v>42</v>
@@ -1951,13 +1956,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
         <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>42</v>
@@ -1965,27 +1970,27 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
         <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
         <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
         <v>42</v>
@@ -1993,13 +1998,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s">
         <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
         <v>42</v>
@@ -2007,41 +2012,41 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>57</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>140</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>58</v>
       </c>
-      <c r="F23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="F24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B25" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>93</v>
-      </c>
-      <c r="F24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
       </c>
       <c r="F25" t="s">
         <v>42</v>
@@ -2049,13 +2054,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s">
         <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s">
         <v>42</v>
@@ -2063,13 +2068,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
         <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F27" t="s">
         <v>42</v>
@@ -2077,13 +2082,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
         <v>137</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s">
         <v>42</v>
@@ -2091,13 +2096,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
         <v>137</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s">
         <v>42</v>
@@ -2105,13 +2110,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
         <v>137</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s">
         <v>42</v>
@@ -2119,13 +2124,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
         <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F31" t="s">
         <v>42</v>
@@ -2133,13 +2138,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
         <v>137</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
@@ -2147,13 +2152,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
         <v>137</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F33" t="s">
         <v>42</v>
@@ -2161,13 +2166,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
         <v>137</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="F34" t="s">
         <v>42</v>
@@ -2175,41 +2180,41 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>92</v>
       </c>
-      <c r="B35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" t="s">
         <v>121</v>
       </c>
-      <c r="F35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+      <c r="F36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="B36" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
         <v>123</v>
-      </c>
-      <c r="F36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" t="s">
-        <v>64</v>
       </c>
       <c r="F37" t="s">
         <v>42</v>
@@ -2217,13 +2222,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F38" t="s">
         <v>42</v>
@@ -2231,13 +2236,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="B39" t="s">
         <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F39" t="s">
         <v>42</v>
@@ -2245,13 +2250,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -2259,13 +2264,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
         <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F41" t="s">
         <v>42</v>
@@ -2273,13 +2278,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F42" t="s">
         <v>42</v>
@@ -2287,13 +2292,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="F43" t="s">
         <v>42</v>
@@ -2301,13 +2306,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F44" t="s">
         <v>42</v>
@@ -2315,13 +2320,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B45" t="s">
         <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F45" t="s">
         <v>42</v>
@@ -2329,13 +2334,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F46" t="s">
         <v>42</v>
@@ -2343,13 +2348,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F47" t="s">
         <v>42</v>
@@ -2357,13 +2362,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B48" t="s">
         <v>137</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F48" t="s">
         <v>42</v>
@@ -2371,13 +2376,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B49" t="s">
         <v>137</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F49" t="s">
         <v>42</v>
@@ -2385,13 +2390,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F50" t="s">
         <v>42</v>
@@ -2399,13 +2404,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F51" t="s">
         <v>42</v>
@@ -2413,27 +2418,27 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B52" t="s">
         <v>137</v>
       </c>
       <c r="C52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G52" t="s">
-        <v>101</v>
+        <v>110</v>
+      </c>
+      <c r="F52" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="G53" t="s">
         <v>101</v>
@@ -2441,13 +2446,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B54" t="s">
         <v>143</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G54" t="s">
         <v>101</v>
@@ -2455,48 +2460,62 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B55" t="s">
         <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G55" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" t="s">
+        <v>100</v>
+      </c>
+      <c r="G56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>184</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B57" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>185</v>
-      </c>
-      <c r="B57" t="s">
-        <v>145</v>
-      </c>
-      <c r="C57" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>133</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>146</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>134</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D8BB9E-95DA-4ECA-8868-CDDC23D8A231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731C297F-7783-4A00-9959-5EE8A7C48E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -113,10 +113,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>最後維護人員</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -694,6 +690,9 @@
   <si>
     <t>(日終批次)更新股票代號檔</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -1306,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1327,10 +1326,10 @@
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1355,7 +1354,7 @@
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>13</v>
@@ -1436,20 +1435,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
@@ -1457,20 +1456,20 @@
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>51</v>
-      </c>
       <c r="D10" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="14">
         <v>8</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1478,20 +1477,20 @@
         <v>3</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="15" t="s">
         <v>46</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>47</v>
       </c>
       <c r="E11" s="14">
         <v>10</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1499,17 +1498,17 @@
         <v>4</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1517,17 +1516,17 @@
         <v>5</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>56</v>
-      </c>
       <c r="D13" s="17" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1535,10 +1534,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>12</v>
@@ -1548,7 +1547,7 @@
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1581,7 +1580,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="24"/>
@@ -1592,10 +1591,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>12</v>
@@ -1611,13 +1610,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>31</v>
-      </c>
       <c r="D18" s="17" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="24"/>
@@ -1669,10 +1668,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
@@ -1701,822 +1700,822 @@
   <sheetData>
     <row r="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>28</v>
-      </c>
       <c r="D1" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="F1" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
         <v>186</v>
-      </c>
-      <c r="B6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="B19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" t="s">
-        <v>61</v>
-      </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
         <v>96</v>
       </c>
-      <c r="B20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" t="s">
-        <v>97</v>
-      </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" t="s">
         <v>57</v>
       </c>
-      <c r="B24" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
         <v>75</v>
       </c>
-      <c r="B27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" t="s">
-        <v>76</v>
-      </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s">
         <v>77</v>
       </c>
-      <c r="B28" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" t="s">
-        <v>78</v>
-      </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" t="s">
         <v>79</v>
       </c>
-      <c r="B29" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" t="s">
-        <v>80</v>
-      </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
         <v>81</v>
       </c>
-      <c r="B30" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" t="s">
-        <v>82</v>
-      </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" t="s">
         <v>83</v>
       </c>
-      <c r="B31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" t="s">
-        <v>84</v>
-      </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
         <v>85</v>
       </c>
-      <c r="B32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" t="s">
-        <v>86</v>
-      </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
         <v>87</v>
       </c>
-      <c r="B33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" t="s">
-        <v>88</v>
-      </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" t="s">
         <v>89</v>
       </c>
-      <c r="B34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" t="s">
-        <v>90</v>
-      </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" t="s">
         <v>63</v>
       </c>
-      <c r="B38" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" t="s">
-        <v>64</v>
-      </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" t="s">
         <v>66</v>
       </c>
-      <c r="B40" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" t="s">
-        <v>67</v>
-      </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" t="s">
         <v>68</v>
       </c>
-      <c r="B41" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" t="s">
-        <v>69</v>
-      </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" t="s">
         <v>70</v>
       </c>
-      <c r="B42" t="s">
-        <v>142</v>
-      </c>
-      <c r="C42" t="s">
-        <v>71</v>
-      </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" t="s">
         <v>72</v>
       </c>
-      <c r="B43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" t="s">
-        <v>73</v>
-      </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C56" t="s">
+        <v>99</v>
+      </c>
+      <c r="G56" t="s">
         <v>100</v>
-      </c>
-      <c r="G56" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" t="s">
         <v>133</v>
-      </c>
-      <c r="B59" t="s">
-        <v>146</v>
-      </c>
-      <c r="C59" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
